--- a/asset/Documents_ja/Exastro-ITA_【参考】インストール時の各コンフィグ設定値.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】インストール時の各コンフィグ設定値.xlsx
@@ -7,22 +7,22 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="【参考】my.cnf変更箇所リスト" sheetId="2" r:id="rId1"/>
+    <sheet name="【参考】server.cnf変更箇所リスト" sheetId="2" r:id="rId1"/>
     <sheet name="【参考】ansible.cfg変更箇所リスト" sheetId="3" r:id="rId2"/>
     <sheet name="【参考】php.ini変更箇所リスト" sheetId="4" r:id="rId3"/>
     <sheet name="ITA設定ファイル説明" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">【参考】ansible.cfg変更箇所リスト!$B$4:$F$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">【参考】my.cnf変更箇所リスト!$B$4:$F$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">【参考】php.ini変更箇所リスト!$B$4:$F$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">【参考】server.cnf変更箇所リスト!$B$4:$F$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ITA設定ファイル説明!$B$4:$K$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">【参考】ansible.cfg変更箇所リスト!$B$2:$F$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">【参考】my.cnf変更箇所リスト!$B$2:$F$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">【参考】php.ini変更箇所リスト!$B$2:$F$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">【参考】server.cnf変更箇所リスト!$B$2:$F$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">ITA設定ファイル説明!$B$2:$J$27</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="196">
   <si>
     <t>№</t>
     <phoneticPr fontId="1"/>
@@ -61,9 +61,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>tmp_table_size=32M</t>
-  </si>
-  <si>
     <t>参考</t>
     <rPh sb="0" eb="2">
       <t>サンコウ</t>
@@ -71,33 +68,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>max_heap_table_size=32M</t>
-  </si>
-  <si>
-    <t>query_cache_type=1</t>
-  </si>
-  <si>
-    <t>query_cache_limit=16</t>
-  </si>
-  <si>
-    <t>sort_buffer_size=32</t>
-  </si>
-  <si>
-    <t>read_rnd_buffer_size=32</t>
-  </si>
-  <si>
-    <t>read_buffer_size=32</t>
-  </si>
-  <si>
-    <t>max_allowed_packet=8M</t>
-  </si>
-  <si>
-    <t>innodb_log_buffer_size=32M</t>
-  </si>
-  <si>
-    <t>innodb_large_prefix</t>
-  </si>
-  <si>
     <t>必須</t>
     <rPh sb="0" eb="2">
       <t>ヒッス</t>
@@ -105,39 +75,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Barracudaを指定することでDBファイルが圧縮されるため、多少のCPUパワーと引き換えに十分なパフォーマンスを引き出してくれる。
-※インデックスの最大文字列数も716バイト→3017バイトに拡張される。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>innodb_file_format=Barracuda</t>
-  </si>
-  <si>
-    <t>innodb_file_per_table</t>
-  </si>
-  <si>
-    <t>sql_mode=NO_ENGINE_SUBSTITUTION,STRICT_TRANS_TABLES</t>
-  </si>
-  <si>
-    <t>max_connections=100</t>
-  </si>
-  <si>
-    <t>character-set-server = utf8</t>
-  </si>
-  <si>
-    <t>explicit_defaults_for_timestamp = true</t>
-  </si>
-  <si>
-    <t>skip-character-set-client-handshake</t>
-  </si>
-  <si>
-    <t>log_timestamps=SYSTEM</t>
-  </si>
-  <si>
-    <t>default_password_lifetime = 0</t>
-  </si>
-  <si>
     <t>必須/参考</t>
     <rPh sb="0" eb="2">
       <t>ヒッス</t>
@@ -152,10 +89,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>my.cnf変更箇所リスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※コメント解除＋変更</t>
     <rPh sb="5" eb="7">
       <t>カイジョ</t>
@@ -299,16 +232,6 @@
   </si>
   <si>
     <t>#inventory      = /etc/ansible/hosts</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ansible.cfg変更箇所リスト</t>
-    <rPh sb="11" eb="13">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カショ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -502,16 +425,6 @@
   </si>
   <si>
     <t>output_buffering = 4096</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>php.ini変更箇所リスト</t>
-    <rPh sb="7" eb="9">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カショ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -587,30 +500,6 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>max_sp_recursion_depth=20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">MySQLのファンクションにて再帰呼び出しする際に必要。
-</t>
-    <rPh sb="15" eb="17">
-      <t>サイキ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -667,10 +556,6 @@
     <rPh sb="99" eb="101">
       <t>カクリツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>transaction-isolation=READ-COMMITTED</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -879,30 +764,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>innodb_log_file_size=128M</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>min_examined_row_limit=100</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>key_buffer_size=128M</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>join_buffer_size=64M</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>query_cache_size=256M</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>validate-password=OFF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>deprecation_warnings = False</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -960,10 +825,6 @@
   </si>
   <si>
     <t>#ssh_args = -C -o ControlMaster=auto -o ControlPersist=60s</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なし</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -988,34 +849,6 @@
   </si>
   <si>
     <t>ITAの使い方に応じてチューニングを検討。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">トランザクションの分離レベルを指定。
-「READ-COMMITTED」は多くのデータベースシステム（Oracle、PostgreSQL、SQL Server）でデフォルトの分離レベル。
-MySQLのデフォルトは「REPEATABLE-READ」であるがITAの利用方針と合わないため変更する必要がある。
-</t>
-    <rPh sb="9" eb="11">
-      <t>ブンリ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="130" eb="132">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="132" eb="134">
-      <t>ホウシン</t>
-    </rPh>
-    <rPh sb="135" eb="136">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="141" eb="143">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="145" eb="147">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">ITA利用時にタイムアウト等発生の際はチューニングを検討。
@@ -1089,9 +922,6 @@
       <t>セツゾク</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ITA設定ファイル説明</t>
   </si>
   <si>
     <t>ITA</t>
@@ -1346,6 +1176,141 @@
   </si>
   <si>
     <t>(ITAインストールディレクトリ)/ita-root/confs/webconfs/path_PHPExcel_Classes.txt</t>
+  </si>
+  <si>
+    <t>innodb_log_file_size=128M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>join_buffer_size=64M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>query_cache_size=256M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>query_cache_type=1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max_heap_table_size=32M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tmp_table_size=32M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mrr_buffer_size=32M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>transaction-isolation=READ-COMMITTED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">トランザクションの分離レベルを指定。
+「READ-COMMITTED」は多くのデータベースシステム（Oracle、PostgreSQL、SQL Server）でデフォルトの分離レベル。
+MariaDBのデフォルトは「REPEATABLE-READ」であるがITAの利用方針と合わないため変更する必要がある。
+</t>
+    <rPh sb="9" eb="11">
+      <t>ブンリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ホウシン</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>character-set-server = utf8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>explicit_defaults_for_timestamp = true</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OFF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>128MB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>innodb_log_buffer_size=32M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16MB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>256KB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REPEATABLE-READ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>latin1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>48MB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※以下の設定はMariaDB10.4にて動作するように設計されています。</t>
+    <rPh sb="1" eb="3">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>server.cnf変更箇所リスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>server.cnf変更箇所リスト</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1490,7 +1455,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1565,6 +1530,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1865,14 +1833,14 @@
     <tabColor rgb="FFCC9900"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I105"/>
+  <dimension ref="B1:I89"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1887,22 +1855,26 @@
     <row r="1" spans="2:6" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>192</v>
+      </c>
+    </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B4" s="15" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>1</v>
@@ -1913,13 +1885,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -1928,502 +1900,261 @@
         <v>2</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>26</v>
+        <v>190</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>181</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" ht="81" x14ac:dyDescent="0.15">
       <c r="B7" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>179</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9">
-        <v>4</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9">
         <v>5</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="2"/>
+      <c r="C9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9">
         <v>6</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>169</v>
+      <c r="C10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9">
         <v>7</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="1"/>
+      <c r="C11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9">
         <v>8</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>169</v>
+      <c r="C12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9">
         <v>9</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="2:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="C13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9">
         <v>10</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="C14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9">
         <v>11</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="1"/>
+      <c r="C15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="16" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9">
         <v>12</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="9">
         <v>13</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="9">
-        <v>14</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="9">
-        <v>15</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="9">
-        <v>16</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="9">
-        <v>17</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="9">
-        <v>18</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="9">
-        <v>19</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="9">
-        <v>20</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="9">
-        <v>21</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="9">
-        <v>22</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="9">
-        <v>23</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="9">
-        <v>24</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="9">
-        <v>25</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="9">
-        <v>26</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="B31" s="9">
-        <v>27</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="9">
-        <v>25</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="46" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H46" s="4"/>
-    </row>
-    <row r="48" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H66" s="4"/>
-    </row>
-    <row r="73" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H73" s="4"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H30" s="4"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="50" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H50" s="4"/>
+    </row>
+    <row r="57" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H58" s="4"/>
+    </row>
+    <row r="63" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H63" s="4"/>
+    </row>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H65" s="4"/>
+    </row>
+    <row r="67" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H67" s="4"/>
     </row>
     <row r="74" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H74" s="4"/>
     </row>
+    <row r="75" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H77" s="4"/>
+    </row>
     <row r="79" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H79" s="4"/>
     </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H81" s="4"/>
+    <row r="80" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H80" s="4"/>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H83" s="4"/>
     </row>
-    <row r="90" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H90" s="4"/>
-    </row>
-    <row r="91" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H91" s="4"/>
-    </row>
-    <row r="92" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H92" s="4"/>
-    </row>
-    <row r="93" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H93" s="4"/>
-    </row>
-    <row r="95" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H95" s="4"/>
-    </row>
-    <row r="96" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H96" s="4"/>
-    </row>
-    <row r="99" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H99" s="4"/>
-    </row>
-    <row r="101" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H101" s="4"/>
-    </row>
-    <row r="102" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H102" s="4"/>
-    </row>
-    <row r="103" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H103" s="4"/>
-    </row>
-    <row r="105" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H105" s="4"/>
+    <row r="85" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H87" s="4"/>
+    </row>
+    <row r="89" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H89" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:F29"/>
+  <autoFilter ref="B4:F16"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
@@ -2440,9 +2171,10 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2457,22 +2189,22 @@
     <row r="1" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
-        <v>74</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B4" s="15" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>1</v>
@@ -2483,16 +2215,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2500,16 +2232,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2517,16 +2249,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2534,16 +2266,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2551,16 +2283,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2568,16 +2300,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -2586,16 +2318,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2603,16 +2335,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2620,16 +2352,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2637,16 +2369,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H14" s="4"/>
     </row>
@@ -2655,16 +2387,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H15" s="4"/>
     </row>
@@ -2673,16 +2405,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2690,16 +2422,16 @@
         <v>23</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2707,16 +2439,16 @@
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2724,16 +2456,16 @@
         <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2741,16 +2473,16 @@
         <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2758,16 +2490,16 @@
         <v>15</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2775,16 +2507,16 @@
         <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2792,16 +2524,16 @@
         <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2809,16 +2541,16 @@
         <v>18</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2826,16 +2558,16 @@
         <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2843,16 +2575,16 @@
         <v>19</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2860,16 +2592,16 @@
         <v>20</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>38</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2877,16 +2609,16 @@
         <v>21</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2894,16 +2626,16 @@
         <v>22</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.15">
@@ -2982,9 +2714,10 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2999,22 +2732,22 @@
     <row r="1" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B4" s="15" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>1</v>
@@ -3025,16 +2758,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3042,16 +2775,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3059,16 +2792,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3076,16 +2809,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3093,16 +2826,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3110,16 +2843,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3127,16 +2860,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3144,16 +2877,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3161,13 +2894,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -3176,16 +2909,16 @@
         <v>10</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3193,16 +2926,16 @@
         <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="H15" s="4"/>
     </row>
@@ -3211,16 +2944,16 @@
         <v>12</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3228,16 +2961,16 @@
         <v>13</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3245,16 +2978,16 @@
         <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3262,16 +2995,16 @@
         <v>15</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>130</v>
+        <v>102</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3279,31 +3012,31 @@
         <v>16</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="27"/>
+        <v>104</v>
+      </c>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="9">
         <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3311,16 +3044,16 @@
         <v>18</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H22" s="4"/>
     </row>
@@ -3329,16 +3062,16 @@
         <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H23" s="4"/>
     </row>
@@ -3347,16 +3080,16 @@
         <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3364,16 +3097,16 @@
         <v>21</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3381,16 +3114,16 @@
         <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3398,16 +3131,16 @@
         <v>23</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3415,30 +3148,30 @@
         <v>24</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F28" s="25"/>
+        <v>134</v>
+      </c>
+      <c r="F28" s="26"/>
     </row>
     <row r="29" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="9">
         <v>25</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="F29" s="25"/>
+        <v>135</v>
+      </c>
+      <c r="F29" s="26"/>
     </row>
     <row r="31" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
@@ -3463,9 +3196,10 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3478,7 +3212,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
@@ -3486,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>2</v>
@@ -3501,13 +3235,13 @@
         <v>5</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3517,16 +3251,16 @@
       <c r="C5" s="22"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="21"/>
       <c r="I5" s="1" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3534,7 +3268,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -3542,10 +3276,10 @@
       <c r="G6" s="19"/>
       <c r="H6" s="21"/>
       <c r="I6" s="1" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3553,24 +3287,24 @@
         <v>3</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="22" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3578,7 +3312,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -3586,10 +3320,10 @@
       <c r="G8" s="19"/>
       <c r="H8" s="21"/>
       <c r="I8" s="1" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3597,28 +3331,28 @@
         <v>5</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3626,7 +3360,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -3634,10 +3368,10 @@
       <c r="G10" s="19"/>
       <c r="H10" s="21"/>
       <c r="I10" s="1" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3645,7 +3379,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -3653,10 +3387,10 @@
       <c r="G11" s="19"/>
       <c r="H11" s="21"/>
       <c r="I11" s="1" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3664,24 +3398,24 @@
         <v>8</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3689,28 +3423,28 @@
         <v>9</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="K13" s="4"/>
     </row>
@@ -3719,28 +3453,28 @@
         <v>10</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3748,28 +3482,28 @@
         <v>11</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3777,28 +3511,28 @@
         <v>12</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="K16" s="4"/>
     </row>
@@ -3807,22 +3541,22 @@
         <v>13</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="21" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3830,7 +3564,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -3838,10 +3572,10 @@
       <c r="G18" s="19"/>
       <c r="H18" s="21"/>
       <c r="I18" s="1" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3850,17 +3584,17 @@
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="21"/>
       <c r="I19" s="1" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="K19" s="4"/>
     </row>
@@ -3870,17 +3604,17 @@
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
       <c r="H20" s="21"/>
       <c r="I20" s="1" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3888,7 +3622,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -3896,10 +3630,10 @@
       <c r="G21" s="19"/>
       <c r="H21" s="21"/>
       <c r="I21" s="1" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="121.5" x14ac:dyDescent="0.15">
@@ -3907,7 +3641,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
@@ -3915,10 +3649,10 @@
       <c r="G22" s="19"/>
       <c r="H22" s="21"/>
       <c r="I22" s="1" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3926,7 +3660,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
@@ -3934,10 +3668,10 @@
       <c r="G23" s="19"/>
       <c r="H23" s="21"/>
       <c r="I23" s="1" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3945,7 +3679,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
@@ -3953,15 +3687,15 @@
       <c r="G24" s="19"/>
       <c r="H24" s="21"/>
       <c r="I24" s="1" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="J26" s="23" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/asset/Documents_ja/Exastro-ITA_【参考】インストール時の各コンフィグ設定値.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】インストール時の各コンフィグ設定値.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="【参考】server.cnf変更箇所リスト" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">【参考】ansible.cfg変更箇所リスト!$B$2:$F$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">【参考】php.ini変更箇所リスト!$B$2:$F$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">【参考】server.cnf変更箇所リスト!$B$2:$F$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">ITA設定ファイル説明!$B$2:$J$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">ITA設定ファイル説明!$B$2:$J$24</definedName>
   </definedNames>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="192">
   <si>
     <t>№</t>
     <phoneticPr fontId="1"/>
@@ -637,28 +637,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Twigのパスを記載。
-例：/usr/share/php/Twig-1.34.4
-</t>
-    <rPh sb="12" eb="13">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">HTML_AJAXのパスを記載。
 例：/usr/share/pear/
 </t>
     <rPh sb="17" eb="18">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">PHPExcelのパスを記載。
-例：/usr/share/php/PHPExcel/Classes/
-</t>
-    <rPh sb="16" eb="17">
       <t>レイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -927,73 +909,6 @@
     <t>ITA</t>
   </si>
   <si>
-    <t>(ITAインストールディレクトリ)/ita-root/confs/backyardconfs/cobbler_driver/path_DATA_RELAY_STRAGE_side_Cobbler</t>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/ita-root/confs/backyardconfs/ita_base/data_portability_running_limit.txt</t>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/ita-root/confs/backyardconfs/ita_base/hide_menu_column_list.txt</t>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/ita-root/confs/backyardconfs/mailx_option.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">システムメール(ky_mail)を利用する場合のmailxコマンドに引き渡すオプションを記載する。
-※ITAのメール送信機能(ky_mail)を利用しない場合は不要。
-例えば、送信先MTAを固定したい場合は「-s smtp=xxx.xxx.xxx.xxx:25」などと記載する。
-</t>
-    <rPh sb="34" eb="35">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ワタ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>フヨウ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>タト</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>コテイ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/ita-root/confs/backyardconfs/path_PHP_MODULE.txt</t>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/ita-root/confs/backyardconfs/sysmail.list</t>
-  </si>
-  <si>
     <t xml:space="preserve">システムメール(ky_mail)を利用する場合の設定を記載する。
 ※ITAのメール送信機能(ky_mail)を利用しない場合は不要。
 </t>
@@ -1019,9 +934,6 @@
       <t>フヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/ita-root/confs/commonconfs/app_mail_from.txt</t>
   </si>
   <si>
     <t xml:space="preserve">WebDBCoreからシステムメール(ky_mail)を利用する場合に、送信元アドレスになる。
@@ -1040,9 +952,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(ITAインストールディレクトリ)/ita-root/confs/commonconfs/app_msg_language.txt</t>
-  </si>
-  <si>
     <t xml:space="preserve">ITAの使用言語を定義する。
 日本語の場合は「ja_JP」を記載。
 </t>
@@ -1052,9 +961,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(ITAインストールディレクトリ)/ita-root/confs/commonconfs/db_connection_string.txt</t>
-  </si>
-  <si>
     <t>MySQLへの接続文字列。
 例：「mysql:dbname=ITA_DB;host=localhost」を暗号した文字列
 暗号仕様については※1を参照</t>
@@ -1076,12 +982,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(ITAインストールディレクトリ)/ita-root/confs/commonconfs/db_model_string.txt</t>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/ita-root/confs/commonconfs/db_password.txt</t>
-  </si>
-  <si>
     <t>MySQLの接続パスワード。
 例：「ITA_PASSWD」を暗号した文字列。
 暗号仕様については※1を参照</t>
@@ -1100,9 +1000,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(ITAインストールディレクトリ)/ita-root/confs/commonconfs/db_username.txt</t>
-  </si>
-  <si>
     <t>MySQLの接続ユーザ。
 例：「ITA_USER」を暗号した文字列。
 暗号仕様については※1を参照</t>
@@ -1119,24 +1016,6 @@
       <t>モジレツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/ita-root/confs/commonconfs/path_PHPSpyc_Classes.txt</t>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/ita-root/confs/commonconfs/path_PHPTwig.txt</t>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/ita-root/confs/restapiconfs/ansible_driver/accesskey.txt</t>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/ita-root/confs/restapiconfs/ansible_driver/secret_accesskey.txt</t>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/ita-root/confs/webconfs/admin_mail_addr.txt</t>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/ita-root/confs/webconfs/L7Protocol.txt</t>
   </si>
   <si>
     <t xml:space="preserve">ITA前段でHTTPS終端する場合など、クライアント→サーバのプロトコルが分からない場合に利用する。
@@ -1172,12 +1051,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(ITAインストールディレクトリ)/ita-root/confs/webconfs/path_HTML_AJAX.txt</t>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/ita-root/confs/webconfs/path_PHPExcel_Classes.txt</t>
-  </si>
-  <si>
     <t>innodb_log_file_size=128M</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1309,7 +1182,89 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>server.cnf変更箇所リスト</t>
+    <t>ansible.cfg変更箇所リスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>php.ini変更箇所リスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ITA設定ファイル説明</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/ita_install_package/ITA/backyardconfs/path_PHP_MODULE.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/backyardconfs/sysmail.list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/backyardconfs/ita_base/hide_menu_column_list.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/backyardconfs/ita_base/data_portability_running_limit.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/backyardconfs/cobbler_driver/path_DATA_RELAY_STRAGE_side_Cobbler</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/ita-confs/commonconfs/app_mail_from.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/ita-confs/commonconfs/app_msg_language.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/ita-confs/commonconfs/db_connection_string.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/ita-confs/commonconfs/db_model_string.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/ita-confs/commonconfs/db_password.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/ita-confs/commonconfs/db_username.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/ita-confs/commonconfs/path_PHPSpyc_Classes.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/ita-confs/restapiconfs/ansible_driver/accesskey.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/ita-confs/restapiconfs/ansible_driver/secret_accesskey.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/ita-confs/admin_mail_addr.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/ita-confs/webconfs/L7Protocol.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/ita-confs/webconfs/path_HTML_AJAX.txt</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1835,7 +1790,7 @@
   </sheetPr>
   <dimension ref="B1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
@@ -1855,12 +1810,12 @@
     <row r="1" spans="2:6" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
@@ -1871,10 +1826,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>1</v>
@@ -1888,10 +1843,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -1903,10 +1858,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -1918,13 +1873,13 @@
         <v>7</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1932,16 +1887,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1952,13 +1907,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1969,13 +1924,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1989,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2003,13 +1958,13 @@
         <v>6</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2020,13 +1975,13 @@
         <v>6</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2037,10 +1992,10 @@
         <v>6</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="F14" s="10"/>
     </row>
@@ -2052,13 +2007,13 @@
         <v>6</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2069,13 +2024,13 @@
         <v>6</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
@@ -2086,13 +2041,13 @@
         <v>6</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
@@ -2169,7 +2124,7 @@
   </sheetPr>
   <dimension ref="B1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="70" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
@@ -2189,7 +2144,7 @@
     <row r="1" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2201,10 +2156,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>1</v>
@@ -2235,10 +2190,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>12</v>
@@ -2355,10 +2310,10 @@
         <v>7</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>12</v>
@@ -2408,10 +2363,10 @@
         <v>7</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>12</v>
@@ -2428,7 +2383,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>10</v>
@@ -2561,10 +2516,10 @@
         <v>7</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>10</v>
@@ -2712,7 +2667,7 @@
   </sheetPr>
   <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
@@ -2732,7 +2687,7 @@
     <row r="1" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2744,10 +2699,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>1</v>
@@ -2767,7 +2722,7 @@
         <v>91</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -2801,7 +2756,7 @@
         <v>86</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -2815,10 +2770,10 @@
         <v>85</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -2835,7 +2790,7 @@
         <v>83</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -2849,10 +2804,10 @@
         <v>82</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -2866,10 +2821,10 @@
         <v>81</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -2886,7 +2841,7 @@
         <v>79</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -2918,7 +2873,7 @@
         <v>75</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -2935,7 +2890,7 @@
         <v>73</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H15" s="4"/>
     </row>
@@ -2953,7 +2908,7 @@
         <v>71</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -2970,7 +2925,7 @@
         <v>69</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -2984,7 +2939,7 @@
         <v>68</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>67</v>
@@ -3033,7 +2988,7 @@
         <v>66</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>12</v>
@@ -3151,10 +3106,10 @@
         <v>7</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F28" s="26"/>
     </row>
@@ -3169,7 +3124,7 @@
         <v>53</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F29" s="26"/>
     </row>
@@ -3192,27 +3147,27 @@
     <tabColor rgb="FFCC9900"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:K26"/>
+  <dimension ref="B2:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="3.375" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="10.875" customWidth="1"/>
-    <col min="9" max="9" width="105.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="117.75" style="20" customWidth="1"/>
     <col min="10" max="10" width="76.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
@@ -3220,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>2</v>
@@ -3257,7 +3212,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="21"/>
       <c r="I5" s="1" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>97</v>
@@ -3276,7 +3231,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="21"/>
       <c r="I6" s="1" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>106</v>
@@ -3301,7 +3256,7 @@
         <v>93</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>98</v>
@@ -3314,16 +3269,26 @@
       <c r="C8" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="21"/>
+      <c r="D8" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>93</v>
+      </c>
       <c r="I8" s="1" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3333,26 +3298,16 @@
       <c r="C9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>93</v>
-      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="21"/>
       <c r="I9" s="1" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3360,7 +3315,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -3368,10 +3323,10 @@
       <c r="G10" s="19"/>
       <c r="H10" s="21"/>
       <c r="I10" s="1" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3381,16 +3336,22 @@
       <c r="C11" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="19" t="s">
+        <v>93</v>
+      </c>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="21"/>
+      <c r="G11" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>93</v>
+      </c>
       <c r="I11" s="1" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3403,8 +3364,12 @@
       <c r="D12" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="E12" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>93</v>
+      </c>
       <c r="G12" s="19" t="s">
         <v>93</v>
       </c>
@@ -3412,11 +3377,12 @@
         <v>93</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>155</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9">
@@ -3441,12 +3407,11 @@
         <v>93</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="K13" s="4"/>
+        <v>183</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="14" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9">
@@ -3471,10 +3436,10 @@
         <v>93</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3500,11 +3465,12 @@
         <v>93</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>160</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9">
@@ -3516,105 +3482,94 @@
       <c r="D16" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>93</v>
-      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="21" t="s">
         <v>93</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="K16" s="4"/>
+        <v>186</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="17" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9">
         <v>13</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>93</v>
-      </c>
+      <c r="C17" s="19"/>
       <c r="D17" s="19" t="s">
         <v>93</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
-      <c r="H17" s="21" t="s">
-        <v>93</v>
-      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>107</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="9">
         <v>14</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19" t="s">
+        <v>93</v>
+      </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="21"/>
       <c r="I18" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>111</v>
+        <v>188</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="9">
         <v>15</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19" t="s">
-        <v>93</v>
-      </c>
+      <c r="C19" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="21"/>
       <c r="I19" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B20" s="9">
         <v>16</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19" t="s">
-        <v>93</v>
-      </c>
+      <c r="C20" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
       <c r="H20" s="21"/>
       <c r="I20" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>115</v>
+        <v>190</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3630,71 +3585,14 @@
       <c r="G21" s="19"/>
       <c r="H21" s="21"/>
       <c r="I21" s="1" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="B22" s="9">
-        <v>18</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="9">
-        <v>19</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="9">
-        <v>20</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="J24" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="J26" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J23" s="23" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3702,6 +3600,6 @@
   <autoFilter ref="B4:K4"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="35" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="33" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/asset/Documents_ja/Exastro-ITA_【参考】インストール時の各コンフィグ設定値.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】インストール時の各コンフィグ設定値.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="【参考】server.cnf変更箇所リスト" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">【参考】server.cnf変更箇所リスト!$B$2:$F$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">ITA設定ファイル説明!$B$2:$J$24</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -384,10 +384,6 @@
   </si>
   <si>
     <t>max_input_time = 60</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>max_execution_time = 600</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -774,14 +770,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>post_max_size = 1024M</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>upload_max_filesize = 1024M</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>#remote_tmp     = ~/.ansible/tmp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1265,6 +1253,18 @@
   </si>
   <si>
     <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/ita-confs/webconfs/path_HTML_AJAX.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max_execution_time = 600</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>post_max_size = 4096M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>upload_max_filesize = 4096M</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1790,7 +1790,7 @@
   </sheetPr>
   <dimension ref="B1:I89"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
@@ -1810,12 +1810,12 @@
     <row r="1" spans="2:6" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
@@ -1826,10 +1826,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>131</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>134</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>1</v>
@@ -1843,10 +1843,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -1858,10 +1858,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -1873,13 +1873,13 @@
         <v>7</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1887,16 +1887,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1907,13 +1907,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1924,13 +1924,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1944,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1958,13 +1958,13 @@
         <v>6</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1975,13 +1975,13 @@
         <v>6</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1992,10 +1992,10 @@
         <v>6</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F14" s="10"/>
     </row>
@@ -2007,13 +2007,13 @@
         <v>6</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2024,13 +2024,13 @@
         <v>6</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
@@ -2041,13 +2041,13 @@
         <v>6</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
@@ -2144,7 +2144,7 @@
     <row r="1" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2156,10 +2156,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>131</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>134</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>1</v>
@@ -2190,10 +2190,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>12</v>
@@ -2310,10 +2310,10 @@
         <v>7</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>12</v>
@@ -2363,10 +2363,10 @@
         <v>7</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>12</v>
@@ -2383,7 +2383,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>10</v>
@@ -2516,10 +2516,10 @@
         <v>7</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>10</v>
@@ -2668,11 +2668,11 @@
   <dimension ref="B1:H31"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2687,7 +2687,7 @@
     <row r="1" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2699,10 +2699,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>131</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>134</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>1</v>
@@ -2716,13 +2716,13 @@
         <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -2733,13 +2733,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -2750,13 +2750,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -2770,10 +2770,10 @@
         <v>85</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -2790,7 +2790,7 @@
         <v>83</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -2804,10 +2804,10 @@
         <v>82</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -2821,10 +2821,10 @@
         <v>81</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -2841,7 +2841,7 @@
         <v>79</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -2873,7 +2873,7 @@
         <v>75</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -2890,7 +2890,7 @@
         <v>73</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H15" s="4"/>
     </row>
@@ -2908,7 +2908,7 @@
         <v>71</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -2925,7 +2925,7 @@
         <v>69</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -2939,7 +2939,7 @@
         <v>68</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>67</v>
@@ -2953,13 +2953,13 @@
         <v>7</v>
       </c>
       <c r="D19" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>102</v>
-      </c>
       <c r="F19" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -2970,10 +2970,10 @@
         <v>7</v>
       </c>
       <c r="D20" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>104</v>
       </c>
       <c r="F20" s="28"/>
     </row>
@@ -2988,7 +2988,7 @@
         <v>66</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>12</v>
@@ -3106,10 +3106,10 @@
         <v>7</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F28" s="26"/>
     </row>
@@ -3124,7 +3124,7 @@
         <v>53</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F29" s="26"/>
     </row>
@@ -3149,7 +3149,7 @@
   </sheetPr>
   <dimension ref="B2:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
@@ -3167,7 +3167,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>2</v>
@@ -3190,13 +3190,13 @@
         <v>5</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3206,16 +3206,16 @@
       <c r="C5" s="22"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="21"/>
       <c r="I5" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3223,7 +3223,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -3231,10 +3231,10 @@
       <c r="G6" s="19"/>
       <c r="H6" s="21"/>
       <c r="I6" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3242,24 +3242,24 @@
         <v>3</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3267,28 +3267,28 @@
         <v>4</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3296,7 +3296,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -3304,10 +3304,10 @@
       <c r="G9" s="19"/>
       <c r="H9" s="21"/>
       <c r="I9" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3315,7 +3315,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -3323,10 +3323,10 @@
       <c r="G10" s="19"/>
       <c r="H10" s="21"/>
       <c r="I10" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3334,24 +3334,24 @@
         <v>7</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3359,28 +3359,28 @@
         <v>8</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K12" s="4"/>
     </row>
@@ -3389,28 +3389,28 @@
         <v>9</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3418,28 +3418,28 @@
         <v>10</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3447,28 +3447,28 @@
         <v>11</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K15" s="4"/>
     </row>
@@ -3477,22 +3477,22 @@
         <v>12</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3501,17 +3501,17 @@
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="21"/>
       <c r="I17" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K17" s="4"/>
     </row>
@@ -3521,17 +3521,17 @@
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="21"/>
       <c r="I18" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3539,7 +3539,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -3547,10 +3547,10 @@
       <c r="G19" s="19"/>
       <c r="H19" s="21"/>
       <c r="I19" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="121.5" x14ac:dyDescent="0.15">
@@ -3558,7 +3558,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
@@ -3566,10 +3566,10 @@
       <c r="G20" s="19"/>
       <c r="H20" s="21"/>
       <c r="I20" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3577,7 +3577,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -3585,15 +3585,15 @@
       <c r="G21" s="19"/>
       <c r="H21" s="21"/>
       <c r="I21" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="J23" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/asset/Documents_ja/Exastro-ITA_【参考】インストール時の各コンフィグ設定値.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】インストール時の各コンフィグ設定値.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="【参考】server.cnf変更箇所リスト" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">【参考】ansible.cfg変更箇所リスト!$B$2:$F$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">【参考】php.ini変更箇所リスト!$B$2:$F$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">【参考】server.cnf変更箇所リスト!$B$2:$F$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">ITA設定ファイル説明!$B$2:$J$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">ITA設定ファイル説明!$B$2:$J$30</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="205">
   <si>
     <t>№</t>
     <phoneticPr fontId="1"/>
@@ -970,42 +970,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MySQLの接続パスワード。
-例：「ITA_PASSWD」を暗号した文字列。
-暗号仕様については※1を参照</t>
-    <rPh sb="6" eb="8">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>アンゴウ</t>
-    </rPh>
-    <rPh sb="34" eb="37">
-      <t>モジレツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MySQLの接続ユーザ。
-例：「ITA_USER」を暗号した文字列。
-暗号仕様については※1を参照</t>
-    <rPh sb="6" eb="8">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>アンゴウ</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>モジレツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">ITA前段でHTTPS終端する場合など、クライアント→サーバのプロトコルが分からない場合に利用する。
 ファイルが存在しておりプロトコル(HTTP/HTTPS)の記載がある場合
 ⇒ファイルに記載されているプロトコル(HTTP or HTTPS)が採用される
@@ -1188,74 +1152,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(ITAインストールディレクトリ)/ita_install_package/ITA/backyardconfs/path_PHP_MODULE.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/backyardconfs/sysmail.list</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/backyardconfs/ita_base/hide_menu_column_list.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/backyardconfs/ita_base/data_portability_running_limit.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/backyardconfs/cobbler_driver/path_DATA_RELAY_STRAGE_side_Cobbler</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/ita-confs/commonconfs/app_mail_from.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/ita-confs/commonconfs/app_msg_language.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/ita-confs/commonconfs/db_connection_string.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/ita-confs/commonconfs/db_model_string.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/ita-confs/commonconfs/db_password.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/ita-confs/commonconfs/db_username.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/ita-confs/commonconfs/path_PHPSpyc_Classes.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/ita-confs/restapiconfs/ansible_driver/accesskey.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/ita-confs/restapiconfs/ansible_driver/secret_accesskey.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/ita-confs/admin_mail_addr.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/ita-confs/webconfs/L7Protocol.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/it-automation-1.3.0/ita_install_package/ITA/ita-confs/webconfs/path_HTML_AJAX.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>max_execution_time = 600</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1265,6 +1161,324 @@
   </si>
   <si>
     <t>upload_max_filesize = 4096M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/ita-root/confs/backyardconfs/cobbler_driver/path_DATA_RELAY_STRAGE_side_Cobbler</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/ita-root/confs/backyardconfs/ita_base/data_portability_running_limit.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/ita-root/confs/backyardconfs/ita_base/hide_menu_column_list.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/ita-root/confs/backyardconfs/path_PHP_MODULE.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/ita-root/confs/backyardconfs/sysmail.list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/ita-root/confs/commonconfs/app_mail_from.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/ita-root/confs/commonconfs/app_msg_language.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/ita-root/confs/commonconfs/db_password.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/ita-root/confs/commonconfs/db_username.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/ita-root/confs/commonconfs/path_PHPSpyc_Classes.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/ita-root/confs/restapiconfs/ansible_driver/accesskey.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/ita-root/confs/restapiconfs/ansible_driver/secret_accesskey.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/ita-root/confs/commonconfs/admin_mail_addr.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/ita-root/confs/webconfs/L7Protocol.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/ita-root/confs/webconfs/path_HTML_AJAX.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/ita-root/confs/commonconfs/ansible_vault_accesskey.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ansible-vaultコマンドのパスワード
+パスワードの変更は、ＩＴＡインストール直後のみ動作保証しています。
+運用中に変更したり、パスワードが一致して環境へのメニューエクスポート・メニューインポートは動作保証していません。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">例：「ANSIBLE-VAULT-PASSWORD」を暗号した文字列。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">暗号仕様については※1を参照
+</t>
+    </r>
+    <rPh sb="30" eb="32">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>チョクゴ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>ウンヨウチュウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MySQLの接続パスワード。
+例：「ITA_PASSWD」を暗号した文字列。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>暗号仕様については※1を参照</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>アンゴウ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MySQLの接続ユーザ。
+例：「ITA_USER」を暗号した文字列。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>暗号仕様については※1を参照</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>アンゴウ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/ita-root/confs/backyardconfs/ita_env</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/ita-root/confs/commonconfs/db_model_string.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/ita-root/confs/commonconfs/db_connection_string.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックヤード機能のログレベルとITAのルードディレクトリ(ita-root)を記載する。</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/ita-root/confs/commonconfs/path_ANSIBLE_MODULE.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ansibleコマンド(ansible-playbook/ansible-vault)がインストールされているパスを記載。
+本サンプル⇒「/usr/local/bin」を記載
+</t>
+    <rPh sb="58" eb="60">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/ita-root/confs/restapiconfs/ansible_driver/ansible_playbook_watch_time.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AnsibleサーバのRestAPIでansible-playbookコマンドの稼働確認を行う周期を記載。(単位:ミリ秒)
+この周期で、最大3回まで稼働確認を行う。
+例：「10」
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="40" eb="42">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シュウキ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>シュウキ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/ita-root/confs/webconfs/ExternalAuthSettings.ini</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/ita-root/confs/webconfs/path_PhpSpreadsheet.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Phpspreadsheetのパスを記載。
+本サンプル⇒「/usr/share/php」を記載
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ActiveDirectoryの連携先情報を記載。</t>
+    <rPh sb="16" eb="18">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キサイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1272,7 +1486,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1327,8 +1541,24 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1350,6 +1580,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1410,7 +1646,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1497,6 +1733,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1790,12 +2035,12 @@
   </sheetPr>
   <dimension ref="B1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1810,12 +2055,12 @@
     <row r="1" spans="2:6" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
@@ -1843,10 +2088,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -1858,10 +2103,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -1873,13 +2118,13 @@
         <v>7</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1887,10 +2132,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>113</v>
@@ -1907,10 +2152,10 @@
         <v>6</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>132</v>
@@ -1924,10 +2169,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>132</v>
@@ -1958,10 +2203,10 @@
         <v>6</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>132</v>
@@ -1975,10 +2220,10 @@
         <v>6</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>132</v>
@@ -1992,10 +2237,10 @@
         <v>6</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F14" s="10"/>
     </row>
@@ -2007,10 +2252,10 @@
         <v>6</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>132</v>
@@ -2024,10 +2269,10 @@
         <v>6</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>132</v>
@@ -2041,10 +2286,10 @@
         <v>6</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>132</v>
@@ -2144,7 +2389,7 @@
     <row r="1" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2687,7 +2932,7 @@
     <row r="1" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2753,7 +2998,7 @@
         <v>86</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>133</v>
@@ -2804,7 +3049,7 @@
         <v>82</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>135</v>
@@ -2821,7 +3066,7 @@
         <v>81</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>136</v>
@@ -3147,14 +3392,14 @@
     <tabColor rgb="FFCC9900"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:K23"/>
+  <dimension ref="B2:K33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="J22" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3167,7 +3412,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
@@ -3212,7 +3457,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="21"/>
       <c r="I5" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>96</v>
@@ -3231,7 +3476,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="21"/>
       <c r="I6" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>105</v>
@@ -3256,7 +3501,7 @@
         <v>92</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>97</v>
@@ -3266,56 +3511,66 @@
       <c r="B8" s="9">
         <v>4</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="H8" s="21" t="s">
+      <c r="D8" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="22" t="s">
         <v>92</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>108</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9">
         <v>5</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="21"/>
+      <c r="D9" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>92</v>
+      </c>
       <c r="I9" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9">
         <v>6</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>92</v>
+      <c r="C10" s="30" t="s">
+        <v>95</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -3326,80 +3581,61 @@
         <v>177</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B11" s="9">
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" s="21" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22" t="s">
         <v>92</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>141</v>
+        <v>188</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9">
         <v>8</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>92</v>
-      </c>
+      <c r="C12" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="K12" s="4"/>
+        <v>140</v>
+      </c>
     </row>
     <row r="13" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9">
         <v>9</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="30" t="s">
         <v>92</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>92</v>
-      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="19" t="s">
         <v>92</v>
       </c>
@@ -3407,17 +3643,17 @@
         <v>92</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>94</v>
+        <v>179</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9">
         <v>10</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="30" t="s">
         <v>92</v>
       </c>
       <c r="D14" s="19" t="s">
@@ -3436,17 +3672,18 @@
         <v>92</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>143</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9">
         <v>11</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="30" t="s">
         <v>92</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -3465,136 +3702,301 @@
         <v>92</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="K15" s="4"/>
+        <v>94</v>
+      </c>
     </row>
     <row r="16" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9">
         <v>12</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="30" t="s">
         <v>92</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
+      <c r="E16" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>92</v>
+      </c>
       <c r="H16" s="21" t="s">
         <v>92</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>106</v>
+        <v>180</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9">
         <v>13</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="30" t="s">
+        <v>92</v>
+      </c>
       <c r="D17" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="21"/>
+      <c r="E17" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>92</v>
+      </c>
       <c r="I17" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B18" s="9">
         <v>14</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="21"/>
+      <c r="C18" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22" t="s">
+        <v>92</v>
+      </c>
       <c r="I18" s="1" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>112</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="9">
         <v>15</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="19"/>
+      <c r="C19" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>92</v>
+      </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
-      <c r="H19" s="21"/>
+      <c r="H19" s="21" t="s">
+        <v>92</v>
+      </c>
       <c r="I19" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="121.5" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="9">
         <v>16</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="19"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="19" t="s">
+        <v>92</v>
+      </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
       <c r="H20" s="21"/>
       <c r="I20" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>145</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="4"/>
     </row>
     <row r="21" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="9">
         <v>17</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="19"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="19" t="s">
+        <v>92</v>
+      </c>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="H21" s="21"/>
       <c r="I21" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J21" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="54" x14ac:dyDescent="0.15">
+      <c r="B22" s="9">
+        <v>18</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="9">
+        <v>19</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="9">
+        <v>20</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="B25" s="9">
+        <v>21</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="9">
+        <v>22</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J26" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="J23" s="23" t="s">
+    <row r="27" spans="2:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B27" s="9">
+        <v>23</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J27" s="29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C28" s="31"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C29" s="31"/>
+      <c r="J29" s="23" t="s">
         <v>109</v>
       </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C30" s="31"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C31" s="31"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C32" s="31"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C33" s="31"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:K4"/>

--- a/asset/Documents_ja/Exastro-ITA_【参考】インストール時の各コンフィグ設定値.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】インストール時の各コンフィグ設定値.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="１．MariaDB(server.cnf)" sheetId="2" r:id="rId1"/>
@@ -627,10 +627,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ssh_args = -o ControlMaster=no -o ControlPersist=60s -o StrictHostKeyChecking=no -o UserKnownHostsFile=/dev/null</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>session.save_path = "/var/lib/php/session"</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1387,6 +1383,10 @@
     <rPh sb="11" eb="13">
       <t>レンケイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ssh_args = -o ControlMaster=auto -o ControlPersist=60s -o StrictHostKeyChecking=no -o UserKnownHostsFile=/dev/null</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2019,20 +2019,20 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="1"/>
+    <col min="1" max="1" width="1.625" style="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="57.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="1.6640625" style="1"/>
+    <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="57.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="1.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -2040,7 +2040,7 @@
       <c r="E1" s="20"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2048,17 +2048,17 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="21.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="21"/>
       <c r="C4" s="4"/>
@@ -2066,27 +2066,27 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2094,7 +2094,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
@@ -2102,16 +2102,16 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="6">
         <v>1</v>
       </c>
@@ -2119,14 +2119,14 @@
         <v>6</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="6">
         <v>2</v>
       </c>
@@ -2134,14 +2134,14 @@
         <v>6</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="83.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="83.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="6">
         <v>3</v>
       </c>
@@ -2149,33 +2149,33 @@
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E11" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="6">
         <v>4</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="6">
         <v>5</v>
       </c>
@@ -2183,16 +2183,16 @@
         <v>5</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="6">
         <v>6</v>
       </c>
@@ -2200,16 +2200,16 @@
         <v>5</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="6">
         <v>7</v>
       </c>
@@ -2223,10 +2223,10 @@
         <v>108</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="6">
         <v>8</v>
       </c>
@@ -2234,16 +2234,16 @@
         <v>5</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6">
         <v>9</v>
       </c>
@@ -2251,16 +2251,16 @@
         <v>5</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="6">
         <v>10</v>
       </c>
@@ -2268,14 +2268,14 @@
         <v>5</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6">
         <v>11</v>
       </c>
@@ -2283,16 +2283,16 @@
         <v>5</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="6">
         <v>12</v>
       </c>
@@ -2300,16 +2300,16 @@
         <v>5</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6">
         <v>13</v>
       </c>
@@ -2317,16 +2317,16 @@
         <v>5</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="6">
         <v>14</v>
       </c>
@@ -2337,68 +2337,68 @@
         <v>151</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.15">
       <c r="H35" s="2"/>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="8:9" x14ac:dyDescent="0.15">
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="55" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H55" s="2"/>
     </row>
-    <row r="62" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H63" s="2"/>
     </row>
-    <row r="68" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H68" s="2"/>
     </row>
-    <row r="70" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H70" s="2"/>
     </row>
-    <row r="72" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H72" s="2"/>
     </row>
-    <row r="79" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H79" s="2"/>
     </row>
-    <row r="80" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H81" s="2"/>
     </row>
-    <row r="82" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H82" s="2"/>
     </row>
-    <row r="84" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H84" s="2"/>
     </row>
-    <row r="85" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H85" s="2"/>
     </row>
-    <row r="88" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H88" s="2"/>
     </row>
-    <row r="90" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H90" s="2"/>
     </row>
-    <row r="91" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H91" s="2"/>
     </row>
-    <row r="92" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H92" s="2"/>
     </row>
-    <row r="94" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H94" s="2"/>
     </row>
   </sheetData>
@@ -2406,7 +2406,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.35433070866141736" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P／&amp;N</oddFooter>
   </headerFooter>
@@ -2428,20 +2428,20 @@
       <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="1"/>
+    <col min="1" max="1" width="1.625" style="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="55.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="61.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="1.6640625" style="1"/>
+    <col min="4" max="4" width="45.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="55.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="1.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -2449,7 +2449,7 @@
       <c r="E1" s="20"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2457,17 +2457,17 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="21.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="21"/>
       <c r="C4" s="4"/>
@@ -2475,28 +2475,28 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
@@ -2504,16 +2504,16 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="6">
         <v>1</v>
       </c>
@@ -2527,10 +2527,10 @@
         <v>89</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="6">
         <v>2</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="6">
         <v>3</v>
       </c>
@@ -2558,13 +2558,13 @@
         <v>85</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="6">
         <v>4</v>
       </c>
@@ -2575,13 +2575,13 @@
         <v>84</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="6">
         <v>5</v>
       </c>
@@ -2595,10 +2595,10 @@
         <v>82</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="6">
         <v>6</v>
       </c>
@@ -2609,13 +2609,13 @@
         <v>81</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="6">
         <v>7</v>
       </c>
@@ -2626,13 +2626,13 @@
         <v>80</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="6">
         <v>8</v>
       </c>
@@ -2646,10 +2646,10 @@
         <v>78</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6">
         <v>9</v>
       </c>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="F17" s="23"/>
     </row>
-    <row r="18" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="6">
         <v>10</v>
       </c>
@@ -2678,10 +2678,10 @@
         <v>74</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6">
         <v>11</v>
       </c>
@@ -2695,11 +2695,11 @@
         <v>72</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="6">
         <v>12</v>
       </c>
@@ -2713,10 +2713,10 @@
         <v>70</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6">
         <v>13</v>
       </c>
@@ -2730,10 +2730,10 @@
         <v>68</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="45" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="45" x14ac:dyDescent="0.15">
       <c r="B22" s="6">
         <v>14</v>
       </c>
@@ -2744,13 +2744,13 @@
         <v>67</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="6">
         <v>15</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="6">
         <v>16</v>
       </c>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="F24" s="36"/>
     </row>
-    <row r="25" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="6">
         <v>17</v>
       </c>
@@ -2793,13 +2793,13 @@
         <v>65</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F25" s="23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="6">
         <v>18</v>
       </c>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="6">
         <v>19</v>
       </c>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="6">
         <v>20</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="6">
         <v>21</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="6">
         <v>22</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="6">
         <v>23</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="6">
         <v>24</v>
       </c>
@@ -2911,14 +2911,14 @@
         <v>6</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F32" s="34"/>
     </row>
-    <row r="33" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="6">
         <v>25</v>
       </c>
@@ -2929,11 +2929,11 @@
         <v>52</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F33" s="34"/>
     </row>
-    <row r="35" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <autoFilter ref="B8:F33"/>
   <mergeCells count="2">
@@ -2943,7 +2943,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.35433070866141736" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P／&amp;N</oddFooter>
   </headerFooter>
@@ -2962,23 +2962,23 @@
       <selection activeCell="D25" sqref="D25"/>
       <selection pane="topRight" activeCell="D25" sqref="D25"/>
       <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="1"/>
+    <col min="1" max="1" width="1.625" style="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="1.6640625" style="1"/>
+    <col min="4" max="4" width="55.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="1.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -2986,7 +2986,7 @@
       <c r="E1" s="20"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2994,17 +2994,17 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="21.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3012,7 +3012,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
@@ -3020,16 +3020,16 @@
         <v>7</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6" s="25">
         <v>1</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" s="25">
         <v>2</v>
       </c>
@@ -3054,16 +3054,16 @@
         <v>6</v>
       </c>
       <c r="D7" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>115</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>116</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="25">
         <v>3</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="25">
         <v>4</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="25">
         <v>5</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="25">
         <v>6</v>
       </c>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="25">
         <v>7</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="25">
         <v>8</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="25">
         <v>9</v>
       </c>
@@ -3174,16 +3174,16 @@
         <v>6</v>
       </c>
       <c r="D14" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>117</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>118</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" s="25">
         <v>10</v>
       </c>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" s="25">
         <v>11</v>
       </c>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="25">
         <v>12</v>
       </c>
@@ -3227,16 +3227,16 @@
         <v>6</v>
       </c>
       <c r="D17" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>120</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="25">
         <v>13</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="25">
         <v>14</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="25">
         <v>15</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="25">
         <v>16</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="25">
         <v>17</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="25">
         <v>18</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="25">
         <v>19</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="25">
         <v>20</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" ht="30" x14ac:dyDescent="0.15">
       <c r="B26" s="25">
         <v>21</v>
       </c>
@@ -3380,16 +3380,16 @@
         <v>6</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="25">
         <v>22</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="25">
         <v>23</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="25">
         <v>24</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="25">
         <v>25</v>
       </c>
@@ -3457,62 +3457,62 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="8:9" x14ac:dyDescent="0.15">
       <c r="H38" s="2"/>
     </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="8:9" x14ac:dyDescent="0.15">
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="58" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H58" s="2"/>
     </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H66" s="2"/>
     </row>
-    <row r="71" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H71" s="2"/>
     </row>
-    <row r="73" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H73" s="2"/>
     </row>
-    <row r="75" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H75" s="2"/>
     </row>
-    <row r="82" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H83" s="2"/>
     </row>
-    <row r="84" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H84" s="2"/>
     </row>
-    <row r="85" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H85" s="2"/>
     </row>
-    <row r="87" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H87" s="2"/>
     </row>
-    <row r="88" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H88" s="2"/>
     </row>
-    <row r="91" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H91" s="2"/>
     </row>
-    <row r="93" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H93" s="2"/>
     </row>
-    <row r="94" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H94" s="2"/>
     </row>
-    <row r="95" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H95" s="2"/>
     </row>
-    <row r="97" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H97" s="2"/>
     </row>
   </sheetData>
@@ -3520,7 +3520,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.35433070866141736" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P／&amp;N</oddFooter>
   </headerFooter>
@@ -3542,19 +3542,19 @@
       <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="1"/>
-    <col min="2" max="2" width="4.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="11.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="73.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="1"/>
+    <col min="2" max="2" width="4.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="11.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="73.625" style="3" customWidth="1"/>
     <col min="10" max="10" width="71" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="1.6640625" style="1"/>
+    <col min="11" max="16384" width="1.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -3566,7 +3566,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3578,10 +3578,10 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="21.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3592,7 +3592,7 @@
       <c r="I3" s="28"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3604,12 +3604,12 @@
       <c r="I4" s="28"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B5" s="40" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
@@ -3623,10 +3623,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.15">
       <c r="B6" s="41"/>
       <c r="C6" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>2</v>
@@ -3635,18 +3635,18 @@
         <v>3</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I6" s="41"/>
       <c r="J6" s="41"/>
     </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.15">
       <c r="B7" s="25">
         <v>1</v>
       </c>
@@ -3659,13 +3659,13 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J7" s="30" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.15">
       <c r="B8" s="25">
         <v>2</v>
       </c>
@@ -3678,13 +3678,13 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.15">
       <c r="B9" s="25">
         <v>3</v>
       </c>
@@ -3703,13 +3703,13 @@
         <v>91</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J9" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B10" s="25">
         <v>4</v>
       </c>
@@ -3732,13 +3732,13 @@
         <v>91</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.15">
       <c r="B11" s="25">
         <v>5</v>
       </c>
@@ -3761,13 +3761,13 @@
         <v>91</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J11" s="30" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.15">
       <c r="B12" s="25">
         <v>6</v>
       </c>
@@ -3780,13 +3780,13 @@
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
       <c r="I12" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="25">
         <v>7</v>
       </c>
@@ -3801,13 +3801,13 @@
         <v>91</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.15">
       <c r="B14" s="25">
         <v>8</v>
       </c>
@@ -3820,13 +3820,13 @@
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
       <c r="I14" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.15">
       <c r="B15" s="25">
         <v>9</v>
       </c>
@@ -3845,13 +3845,13 @@
         <v>91</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="63.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="25">
         <v>10</v>
       </c>
@@ -3874,14 +3874,14 @@
         <v>91</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" ht="60" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" ht="60" x14ac:dyDescent="0.15">
       <c r="B17" s="25">
         <v>11</v>
       </c>
@@ -3904,13 +3904,13 @@
         <v>91</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J17" s="29" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="64.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="25">
         <v>12</v>
       </c>
@@ -3933,13 +3933,13 @@
         <v>91</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="47.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="25">
         <v>13</v>
       </c>
@@ -3962,14 +3962,14 @@
         <v>91</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" ht="45" x14ac:dyDescent="0.15">
       <c r="B20" s="25">
         <v>14</v>
       </c>
@@ -3986,14 +3986,14 @@
         <v>91</v>
       </c>
       <c r="I20" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="J20" s="29" t="s">
-        <v>175</v>
-      </c>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" ht="45" x14ac:dyDescent="0.15">
       <c r="B21" s="25">
         <v>15</v>
       </c>
@@ -4010,13 +4010,13 @@
         <v>91</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J21" s="30" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" ht="45" x14ac:dyDescent="0.15">
       <c r="B22" s="25">
         <v>16</v>
       </c>
@@ -4029,14 +4029,14 @@
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
       <c r="I22" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="2:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" ht="45" x14ac:dyDescent="0.15">
       <c r="B23" s="25">
         <v>17</v>
       </c>
@@ -4049,13 +4049,13 @@
       <c r="G23" s="32"/>
       <c r="H23" s="32"/>
       <c r="I23" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="25">
         <v>18</v>
       </c>
@@ -4068,13 +4068,13 @@
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
       <c r="I24" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="64.8" customHeight="1" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="25">
         <v>19</v>
       </c>
@@ -4087,18 +4087,18 @@
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
       <c r="I25" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" s="25">
         <v>20</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -4106,13 +4106,13 @@
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J26" s="30" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="135" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="135" x14ac:dyDescent="0.15">
       <c r="B27" s="25">
         <v>21</v>
       </c>
@@ -4125,13 +4125,13 @@
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
       <c r="I27" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J27" s="30" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="45" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="45" x14ac:dyDescent="0.15">
       <c r="B28" s="25">
         <v>22</v>
       </c>
@@ -4144,13 +4144,13 @@
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
       <c r="I28" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J28" s="30" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11" ht="45" x14ac:dyDescent="0.15">
       <c r="B29" s="25">
         <v>23</v>
       </c>
@@ -4173,31 +4173,31 @@
         <v>91</v>
       </c>
       <c r="I29" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="J29" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="J29" s="29" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C30" s="4"/>
       <c r="J30" s="31" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C35" s="4"/>
     </row>
   </sheetData>
@@ -4211,7 +4211,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.35433070866141736" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="67" fitToHeight="2" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="2" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P／&amp;N</oddFooter>
   </headerFooter>

--- a/asset/Documents_ja/Exastro-ITA_【参考】インストール時の各コンフィグ設定値.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】インストール時の各コンフィグ設定値.xlsx
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'１．MariaDB(server.cnf)'!$A$1:$F$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'２．PHP(php.ini)'!$A$1:$F$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'３．ansible.cfg変更箇所リスト'!$A$1:$F$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'４．ITA設定ファイル説明'!$A$1:$J$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'４．ITA設定ファイル説明'!$A$1:$J$31</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'４．ITA設定ファイル説明'!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="209">
   <si>
     <t>№</t>
     <phoneticPr fontId="1"/>
@@ -840,39 +840,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">ITA前段でHTTPS終端する場合など、クライアント→サーバのプロトコルが分からない場合に利用する。
-ファイルが存在しておりプロトコル(HTTP/HTTPS)の記載がある場合
-⇒ファイルに記載されているプロトコル(HTTP or HTTPS)が採用される
-ファイルが無いまたはファイルが0バイトの場合
-⇒環境変数($_SERVER)からHTTP/HTTPSを判定する
-</t>
-    <rPh sb="37" eb="38">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="135" eb="136">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="150" eb="152">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>query_cache_type=1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1017,10 +984,6 @@
   </si>
   <si>
     <t>(ITAインストールディレクトリ)/ita-root/confs/commonconfs/admin_mail_addr.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/ita-root/confs/webconfs/L7Protocol.txt</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2032,7 +1995,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -2051,7 +2014,7 @@
     <row r="3" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2069,7 +2032,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2079,7 +2042,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2119,10 +2082,10 @@
         <v>6</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F9" s="10"/>
     </row>
@@ -2134,10 +2097,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F10" s="10"/>
     </row>
@@ -2149,13 +2112,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2163,13 +2126,13 @@
         <v>4</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>125</v>
@@ -2183,10 +2146,10 @@
         <v>5</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>125</v>
@@ -2200,10 +2163,10 @@
         <v>5</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>125</v>
@@ -2234,10 +2197,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>125</v>
@@ -2251,10 +2214,10 @@
         <v>5</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>125</v>
@@ -2268,10 +2231,10 @@
         <v>5</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F18" s="18"/>
     </row>
@@ -2283,10 +2246,10 @@
         <v>5</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>125</v>
@@ -2300,10 +2263,10 @@
         <v>5</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>125</v>
@@ -2317,10 +2280,10 @@
         <v>5</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>125</v>
@@ -2337,7 +2300,7 @@
         <v>151</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>125</v>
@@ -2406,7 +2369,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.35433070866141736" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P／&amp;N</oddFooter>
   </headerFooter>
@@ -2441,7 +2404,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -2460,7 +2423,7 @@
     <row r="3" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2478,7 +2441,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2488,7 +2451,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2558,7 +2521,7 @@
         <v>85</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>126</v>
@@ -2609,7 +2572,7 @@
         <v>81</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>128</v>
@@ -2626,7 +2589,7 @@
         <v>80</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>129</v>
@@ -2943,7 +2906,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.35433070866141736" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P／&amp;N</oddFooter>
   </headerFooter>
@@ -2978,7 +2941,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -2997,7 +2960,7 @@
     <row r="3" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3383,7 +3346,7 @@
         <v>120</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>9</v>
@@ -3520,7 +3483,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.35433070866141736" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P／&amp;N</oddFooter>
   </headerFooter>
@@ -3532,14 +3495,14 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
       <selection pane="topRight" activeCell="D25" sqref="D25"/>
       <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD18"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -3554,7 +3517,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -3581,7 +3544,7 @@
     <row r="3" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3609,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
@@ -3626,7 +3589,7 @@
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.15">
       <c r="B6" s="41"/>
       <c r="C6" s="24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>2</v>
@@ -3635,13 +3598,13 @@
         <v>3</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I6" s="41"/>
       <c r="J6" s="41"/>
@@ -3659,7 +3622,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J7" s="30" t="s">
         <v>94</v>
@@ -3678,7 +3641,7 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>103</v>
@@ -3703,7 +3666,7 @@
         <v>91</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J9" s="30" t="s">
         <v>95</v>
@@ -3732,10 +3695,10 @@
         <v>91</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -3761,7 +3724,7 @@
         <v>91</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J11" s="30" t="s">
         <v>105</v>
@@ -3780,7 +3743,7 @@
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
       <c r="I12" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J12" s="30" t="s">
         <v>131</v>
@@ -3801,10 +3764,10 @@
         <v>91</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.15">
@@ -3820,7 +3783,7 @@
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
       <c r="I14" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J14" s="30" t="s">
         <v>132</v>
@@ -3845,7 +3808,7 @@
         <v>91</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J15" s="30" t="s">
         <v>133</v>
@@ -3874,7 +3837,7 @@
         <v>91</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J16" s="30" t="s">
         <v>134</v>
@@ -3904,7 +3867,7 @@
         <v>91</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J17" s="29" t="s">
         <v>92</v>
@@ -3933,10 +3896,10 @@
         <v>91</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="47.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3962,10 +3925,10 @@
         <v>91</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K19" s="2"/>
     </row>
@@ -3986,10 +3949,10 @@
         <v>91</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J20" s="29" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K20" s="2"/>
     </row>
@@ -4010,7 +3973,7 @@
         <v>91</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J21" s="30" t="s">
         <v>104</v>
@@ -4029,10 +3992,10 @@
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
       <c r="I22" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K22" s="2"/>
     </row>
@@ -4049,10 +4012,10 @@
       <c r="G23" s="32"/>
       <c r="H23" s="32"/>
       <c r="I23" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -4068,10 +4031,10 @@
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
       <c r="I24" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
@@ -4087,10 +4050,10 @@
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
       <c r="I25" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
@@ -4098,7 +4061,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -4106,13 +4069,13 @@
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J26" s="30" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="135" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="45" x14ac:dyDescent="0.15">
       <c r="B27" s="25">
         <v>21</v>
       </c>
@@ -4125,10 +4088,10 @@
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
       <c r="I27" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J27" s="30" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="45" x14ac:dyDescent="0.15">
@@ -4138,52 +4101,36 @@
       <c r="C28" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
+      <c r="D28" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>91</v>
+      </c>
       <c r="I28" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="J28" s="30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" ht="45" x14ac:dyDescent="0.15">
-      <c r="B29" s="25">
-        <v>23</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="J29" s="29" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C29" s="4"/>
+      <c r="J29" s="31" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C30" s="4"/>
-      <c r="J30" s="31" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C31" s="4"/>
@@ -4196,9 +4143,6 @@
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C35" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="B6:K6"/>
@@ -4211,7 +4155,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.35433070866141736" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="2" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="2" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P／&amp;N</oddFooter>
   </headerFooter>

--- a/asset/Documents_ja/Exastro-ITA_【参考】インストール時の各コンフィグ設定値.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】インストール時の各コンフィグ設定値.xlsx
@@ -18,9 +18,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'３．ansible.cfg変更箇所リスト'!$B$5:$F$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'４．ITA設定ファイル説明'!$B$6:$K$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'１．MariaDB(server.cnf)'!$A$1:$F$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'２．PHP(php.ini)'!$A$1:$F$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'２．PHP(php.ini)'!$A$1:$F$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'３．ansible.cfg変更箇所リスト'!$A$1:$F$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'４．ITA設定ファイル説明'!$A$1:$J$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'４．ITA設定ファイル説明'!$A$1:$J$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'４．ITA設定ファイル説明'!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="210">
   <si>
     <t>№</t>
     <phoneticPr fontId="1"/>
@@ -582,12 +582,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Spycのパスを記載。
-本サンプル⇒「/usr/share/php/spyc-master」を記載
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">PHPモジュールのパスを記載。
 例：/bin/php
 </t>
@@ -968,10 +962,6 @@
   </si>
   <si>
     <t>(ITAインストールディレクトリ)/ita-root/confs/commonconfs/db_username.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(ITAインストールディレクトリ)/ita-root/confs/commonconfs/path_PHPSpyc_Classes.txt</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1350,6 +1340,21 @@
   </si>
   <si>
     <t>ssh_args = -o ControlMaster=auto -o ControlPersist=60s -o StrictHostKeyChecking=no -o UserKnownHostsFile=/dev/null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>extension=yaml.so</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※追記</t>
+    <rPh sb="1" eb="3">
+      <t>ツイキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1556,7 +1561,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1682,6 +1687,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1979,7 +1987,7 @@
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1995,7 +2003,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -2014,7 +2022,7 @@
     <row r="3" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2032,7 +2040,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2042,7 +2050,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2065,10 +2073,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>1</v>
@@ -2082,10 +2090,10 @@
         <v>6</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F9" s="10"/>
     </row>
@@ -2097,10 +2105,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F10" s="10"/>
     </row>
@@ -2112,13 +2120,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E11" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2126,16 +2134,16 @@
         <v>4</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2146,13 +2154,13 @@
         <v>5</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2163,13 +2171,13 @@
         <v>5</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2183,10 +2191,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2197,13 +2205,13 @@
         <v>5</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2214,13 +2222,13 @@
         <v>5</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2231,10 +2239,10 @@
         <v>5</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F18" s="18"/>
     </row>
@@ -2246,13 +2254,13 @@
         <v>5</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2263,13 +2271,13 @@
         <v>5</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2280,13 +2288,13 @@
         <v>5</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2300,10 +2308,10 @@
         <v>151</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.15">
@@ -2388,7 +2396,7 @@
       <selection activeCell="D25" sqref="D25"/>
       <selection pane="topRight" activeCell="D25" sqref="D25"/>
       <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -2404,7 +2412,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -2423,7 +2431,7 @@
     <row r="3" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2441,7 +2449,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2451,7 +2459,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2467,10 +2475,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>1</v>
@@ -2490,7 +2498,7 @@
         <v>89</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2521,10 +2529,10 @@
         <v>85</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2538,10 +2546,10 @@
         <v>84</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2558,7 +2566,7 @@
         <v>82</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2572,10 +2580,10 @@
         <v>81</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2589,10 +2597,10 @@
         <v>80</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2609,7 +2617,7 @@
         <v>78</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2641,7 +2649,7 @@
         <v>74</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2658,7 +2666,7 @@
         <v>72</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -2676,7 +2684,7 @@
         <v>70</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2693,7 +2701,7 @@
         <v>68</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="45" x14ac:dyDescent="0.15">
@@ -2707,7 +2715,7 @@
         <v>67</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>66</v>
@@ -2756,7 +2764,7 @@
         <v>65</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F25" s="23" t="s">
         <v>11</v>
@@ -2874,10 +2882,10 @@
         <v>6</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F32" s="34"/>
     </row>
@@ -2892,9 +2900,26 @@
         <v>52</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F33" s="34"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B34" s="6">
+        <v>26</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="35" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
@@ -2921,7 +2946,7 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
       <selection pane="topRight" activeCell="D25" sqref="D25"/>
       <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
@@ -2941,7 +2966,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -2960,7 +2985,7 @@
     <row r="3" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2983,10 +3008,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>1</v>
@@ -3017,10 +3042,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>114</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>115</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>11</v>
@@ -3137,10 +3162,10 @@
         <v>6</v>
       </c>
       <c r="D14" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>116</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>117</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>11</v>
@@ -3190,10 +3215,10 @@
         <v>6</v>
       </c>
       <c r="D17" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="27" t="s">
         <v>118</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>119</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>11</v>
@@ -3210,7 +3235,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>9</v>
@@ -3343,10 +3368,10 @@
         <v>6</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>9</v>
@@ -3495,7 +3520,7 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
@@ -3517,7 +3542,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -3544,7 +3569,7 @@
     <row r="3" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3572,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
@@ -3589,7 +3614,7 @@
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.15">
       <c r="B6" s="41"/>
       <c r="C6" s="24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>2</v>
@@ -3598,13 +3623,13 @@
         <v>3</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I6" s="41"/>
       <c r="J6" s="41"/>
@@ -3622,7 +3647,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J7" s="30" t="s">
         <v>94</v>
@@ -3641,7 +3666,7 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>103</v>
@@ -3666,7 +3691,7 @@
         <v>91</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J9" s="30" t="s">
         <v>95</v>
@@ -3695,10 +3720,10 @@
         <v>91</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -3724,10 +3749,10 @@
         <v>91</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -3743,10 +3768,10 @@
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
       <c r="I12" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="114" customHeight="1" x14ac:dyDescent="0.15">
@@ -3764,10 +3789,10 @@
         <v>91</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.15">
@@ -3783,10 +3808,10 @@
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
       <c r="I14" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -3808,10 +3833,10 @@
         <v>91</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="63.6" customHeight="1" x14ac:dyDescent="0.15">
@@ -3837,10 +3862,10 @@
         <v>91</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K16" s="2"/>
     </row>
@@ -3867,7 +3892,7 @@
         <v>91</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J17" s="29" t="s">
         <v>92</v>
@@ -3896,10 +3921,10 @@
         <v>91</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="47.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3925,10 +3950,10 @@
         <v>91</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K19" s="2"/>
     </row>
@@ -3949,10 +3974,10 @@
         <v>91</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J20" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K20" s="2"/>
     </row>
@@ -3960,24 +3985,21 @@
       <c r="B21" s="25">
         <v>15</v>
       </c>
-      <c r="C21" s="33" t="s">
-        <v>91</v>
-      </c>
+      <c r="C21" s="33"/>
       <c r="D21" s="32" t="s">
         <v>91</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
-      <c r="H21" s="32" t="s">
-        <v>91</v>
-      </c>
+      <c r="H21" s="32"/>
       <c r="I21" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>104</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11" ht="45" x14ac:dyDescent="0.15">
       <c r="B22" s="25">
@@ -3992,14 +4014,13 @@
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
       <c r="I22" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="2:11" ht="45" x14ac:dyDescent="0.15">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="25">
         <v>17</v>
       </c>
@@ -4012,37 +4033,37 @@
       <c r="G23" s="32"/>
       <c r="H23" s="32"/>
       <c r="I23" s="10" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="25">
         <v>18</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="32" t="s">
-        <v>91</v>
-      </c>
+      <c r="C24" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="32"/>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
       <c r="I24" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="J24" s="29" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" s="25">
         <v>19</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -4050,18 +4071,18 @@
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
       <c r="I25" s="10" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="45" x14ac:dyDescent="0.15">
       <c r="B26" s="25">
         <v>20</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -4069,10 +4090,10 @@
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="10" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="J26" s="30" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="45" x14ac:dyDescent="0.15">
@@ -4082,52 +4103,36 @@
       <c r="C27" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
+      <c r="D27" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>91</v>
+      </c>
       <c r="I27" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="J27" s="30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="45" x14ac:dyDescent="0.15">
-      <c r="B28" s="25">
-        <v>22</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="J28" s="29" t="s">
-        <v>177</v>
+        <v>174</v>
+      </c>
+      <c r="J27" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C28" s="4"/>
+      <c r="J28" s="31" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C29" s="4"/>
-      <c r="J29" s="31" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C30" s="4"/>
@@ -4140,9 +4145,6 @@
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C34" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="B6:K6"/>

--- a/asset/Documents_ja/Exastro-ITA_【参考】インストール時の各コンフィグ設定値.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】インストール時の各コンフィグ設定値.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="１．MariaDB(server.cnf)" sheetId="2" r:id="rId1"/>
@@ -14,11 +14,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'１．MariaDB(server.cnf)'!$B$8:$F$20</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'２．PHP(php.ini)'!$B$8:$F$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'２．PHP(php.ini)'!$B$8:$F$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'３．ansible.cfg変更箇所リスト'!$B$5:$F$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'４．ITA設定ファイル説明'!$B$6:$K$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'１．MariaDB(server.cnf)'!$A$1:$F$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'２．PHP(php.ini)'!$A$1:$F$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'２．PHP(php.ini)'!$A$1:$F$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'３．ansible.cfg変更箇所リスト'!$A$1:$F$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'４．ITA設定ファイル説明'!$A$1:$J$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'４．ITA設定ファイル説明'!$1:$6</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="207">
   <si>
     <t>№</t>
     <phoneticPr fontId="1"/>
@@ -176,9 +176,6 @@
     <t>#action_plugins     = /usr/share/ansible/plugins/action</t>
   </si>
   <si>
-    <t>timeout = 10</t>
-  </si>
-  <si>
     <t>#timeout = 10</t>
   </si>
   <si>
@@ -229,10 +226,6 @@
   </si>
   <si>
     <t>#inventory      = /etc/ansible/hosts</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>;openssl.capath=</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -591,19 +584,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※1 base64エンコード後、rot13で変換した値</t>
-    <rPh sb="14" eb="15">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">HTML_AJAXのパスを記載。
 例：/usr/share/pear/
 </t>
@@ -629,10 +609,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>;openssl.cafile=</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>max_input_time = 600</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -670,12 +646,6 @@
       <t>ショキチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openssl.cafile=/etc/pki/tls/certs/exastro-it-automation-ja.crt</t>
-  </si>
-  <si>
-    <t>openssl.capath=/etc/pki/tls/certs/exastro-it-automation-ja.crt</t>
   </si>
   <si>
     <t>ITAインストール後</t>
@@ -1355,6 +1325,33 @@
     <rPh sb="1" eb="3">
       <t>ツイキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>timeout = 60</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1 base64エンコード後、rot13で変換した値。以下のコマンドで作成する。</t>
+    <rPh sb="14" eb="15">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>echo -ne "（変換したい文字列）" | base64 | tr '[A-Za-z]' '[N-ZA-Mn-za-m]'</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1561,7 +1558,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1664,8 +1661,8 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1687,9 +1684,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1982,12 +1976,12 @@
   </sheetPr>
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -2003,7 +1997,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -2022,7 +2016,7 @@
     <row r="3" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="21" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2040,7 +2034,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2050,7 +2044,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2073,10 +2067,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>1</v>
@@ -2090,10 +2084,10 @@
         <v>6</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F9" s="10"/>
     </row>
@@ -2105,10 +2099,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F10" s="10"/>
     </row>
@@ -2120,13 +2114,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2134,16 +2128,16 @@
         <v>4</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2154,13 +2148,13 @@
         <v>5</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2171,13 +2165,13 @@
         <v>5</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2191,10 +2185,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2205,13 +2199,13 @@
         <v>5</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2222,13 +2216,13 @@
         <v>5</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2239,10 +2233,10 @@
         <v>5</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F18" s="18"/>
     </row>
@@ -2254,13 +2248,13 @@
         <v>5</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2271,13 +2265,13 @@
         <v>5</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2288,13 +2282,13 @@
         <v>5</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2308,10 +2302,10 @@
         <v>151</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.15">
@@ -2389,14 +2383,14 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
       <selection pane="topRight" activeCell="D25" sqref="D25"/>
       <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -2412,7 +2406,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -2431,7 +2425,7 @@
     <row r="3" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="21" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2449,7 +2443,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2459,7 +2453,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2475,10 +2469,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>1</v>
@@ -2492,13 +2486,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2509,13 +2503,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2526,13 +2520,13 @@
         <v>5</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2543,13 +2537,13 @@
         <v>5</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2560,13 +2554,13 @@
         <v>5</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2577,13 +2571,13 @@
         <v>5</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2594,13 +2588,13 @@
         <v>5</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2611,13 +2605,13 @@
         <v>5</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2628,10 +2622,10 @@
         <v>6</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F17" s="23"/>
     </row>
@@ -2643,13 +2637,13 @@
         <v>5</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2660,13 +2654,13 @@
         <v>6</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -2678,13 +2672,13 @@
         <v>5</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2695,13 +2689,13 @@
         <v>5</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="45" x14ac:dyDescent="0.15">
@@ -2712,13 +2706,13 @@
         <v>6</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -2729,13 +2723,13 @@
         <v>6</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -2746,10 +2740,10 @@
         <v>6</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F24" s="36"/>
     </row>
@@ -2761,10 +2755,10 @@
         <v>6</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F25" s="23" t="s">
         <v>11</v>
@@ -2778,10 +2772,10 @@
         <v>6</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F26" s="23" t="s">
         <v>9</v>
@@ -2796,10 +2790,10 @@
         <v>6</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F27" s="23" t="s">
         <v>9</v>
@@ -2814,10 +2808,10 @@
         <v>6</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>9</v>
@@ -2831,10 +2825,10 @@
         <v>6</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" s="23" t="s">
         <v>11</v>
@@ -2848,10 +2842,10 @@
         <v>6</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F30" s="23" t="s">
         <v>11</v>
@@ -2865,73 +2859,42 @@
         <v>6</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B32" s="6">
         <v>24</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F32" s="34"/>
-    </row>
-    <row r="33" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="6">
-        <v>25</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" s="34"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" s="6">
-        <v>26</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="E34" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="F34" s="42" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="D32" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <autoFilter ref="B8:F33"/>
-  <mergeCells count="2">
-    <mergeCell ref="F32:F33"/>
+  <autoFilter ref="B8:F31"/>
+  <mergeCells count="1">
     <mergeCell ref="F23:F24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.35433070866141736" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P／&amp;N</oddFooter>
   </headerFooter>
@@ -2945,12 +2908,12 @@
   </sheetPr>
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
       <selection pane="topRight" activeCell="D25" sqref="D25"/>
       <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -2966,7 +2929,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -2985,7 +2948,7 @@
     <row r="3" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="21" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3008,10 +2971,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>1</v>
@@ -3025,10 +2988,10 @@
         <v>6</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>11</v>
@@ -3042,10 +3005,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>11</v>
@@ -3059,10 +3022,10 @@
         <v>6</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>11</v>
@@ -3076,10 +3039,10 @@
         <v>6</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>11</v>
@@ -3093,10 +3056,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>11</v>
@@ -3110,10 +3073,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>11</v>
@@ -3128,10 +3091,10 @@
         <v>6</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>11</v>
@@ -3145,10 +3108,10 @@
         <v>6</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>11</v>
@@ -3162,10 +3125,10 @@
         <v>6</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>11</v>
@@ -3179,10 +3142,10 @@
         <v>6</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>11</v>
@@ -3197,13 +3160,13 @@
         <v>6</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -3215,10 +3178,10 @@
         <v>6</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>11</v>
@@ -3235,7 +3198,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>9</v>
@@ -3368,10 +3331,10 @@
         <v>6</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>9</v>
@@ -3523,11 +3486,11 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="H31" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D25" sqref="D25"/>
       <selection pane="topRight" activeCell="D25" sqref="D25"/>
       <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -3542,7 +3505,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -3569,7 +3532,7 @@
     <row r="3" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="21" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3597,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
@@ -3605,16 +3568,16 @@
       <c r="G5" s="38"/>
       <c r="H5" s="39"/>
       <c r="I5" s="40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.15">
       <c r="B6" s="41"/>
       <c r="C6" s="24" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>2</v>
@@ -3623,13 +3586,13 @@
         <v>3</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I6" s="41"/>
       <c r="J6" s="41"/>
@@ -3641,16 +3604,16 @@
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
       <c r="E7" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.15">
@@ -3658,7 +3621,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
@@ -3666,10 +3629,10 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="10" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -3677,24 +3640,24 @@
         <v>3</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
       <c r="G9" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -3702,28 +3665,28 @@
         <v>4</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -3731,28 +3694,28 @@
         <v>5</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -3760,7 +3723,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
@@ -3768,10 +3731,10 @@
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
       <c r="I12" s="10" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="114" customHeight="1" x14ac:dyDescent="0.15">
@@ -3780,19 +3743,19 @@
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
       <c r="H13" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.15">
@@ -3800,7 +3763,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
@@ -3808,10 +3771,10 @@
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
       <c r="I14" s="10" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -3819,24 +3782,24 @@
         <v>9</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="63.6" customHeight="1" x14ac:dyDescent="0.15">
@@ -3844,28 +3807,28 @@
         <v>10</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K16" s="2"/>
     </row>
@@ -3874,28 +3837,28 @@
         <v>11</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
@@ -3903,28 +3866,28 @@
         <v>12</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="47.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3932,28 +3895,28 @@
         <v>13</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K19" s="2"/>
     </row>
@@ -3962,22 +3925,22 @@
         <v>14</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
       <c r="H20" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J20" s="29" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K20" s="2"/>
     </row>
@@ -3987,17 +3950,17 @@
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
       <c r="H21" s="32"/>
       <c r="I21" s="10" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J21" s="29" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="K21" s="2"/>
     </row>
@@ -4007,17 +3970,17 @@
       </c>
       <c r="C22" s="33"/>
       <c r="D22" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
       <c r="I22" s="10" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -4026,17 +3989,17 @@
       </c>
       <c r="C23" s="33"/>
       <c r="D23" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
       <c r="H23" s="32"/>
       <c r="I23" s="10" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
@@ -4044,7 +4007,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
@@ -4052,10 +4015,10 @@
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
       <c r="I24" s="10" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
@@ -4063,7 +4026,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -4071,10 +4034,10 @@
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
       <c r="I25" s="10" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="45" x14ac:dyDescent="0.15">
@@ -4082,7 +4045,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -4090,10 +4053,10 @@
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="J26" s="30" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="45" x14ac:dyDescent="0.15">
@@ -4101,38 +4064,41 @@
         <v>21</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C28" s="4"/>
       <c r="J28" s="31" t="s">
-        <v>105</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C29" s="4"/>
+      <c r="J29" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C30" s="4"/>

--- a/asset/Documents_ja/Exastro-ITA_【参考】インストール時の各コンフィグ設定値.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】インストール時の各コンフィグ設定値.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="１．MariaDB(server.cnf)" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'１．MariaDB(server.cnf)'!$A$1:$H$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'２．PHP(php.ini)'!$A$1:$H$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'３．ansible.cfg変更箇所リスト'!$A$1:$G$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'４．ITA設定ファイル説明'!$A$1:$J$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'４．ITA設定ファイル説明'!$A$1:$J$32</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'４．ITA設定ファイル説明'!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="245">
   <si>
     <t>№</t>
     <phoneticPr fontId="1"/>
@@ -51,10 +51,6 @@
   </si>
   <si>
     <t>Cobbler</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSC</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -766,11 +762,6 @@
   <si>
     <t>Ansible
 Tower</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Open
-Stack</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1426,12 +1417,73 @@
     <t>チューニング参考値は、CPU：4コア／メモリ：8GBにした場合の参考値です。</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/ita-root/confs/backyardconfs/CICD_For_IaC/gitCommandResultParsingStringDefinition.ini</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/ita-root/confs/backyardconfs/CICD_For_IaC/innodb_lock_wait_timeout.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CI/CD For IaC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Terraform</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロック時のタイムアウト時間(単位:秒)
+CI/CD For IaC機能のプロセスで使用するMariaDBのパラメータ「innodb_lock_wait_timeout」の設定値を記載</t>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CI/CD For IaC機能でgit pullコマンドの結果(標準出力)から資材の差分なしを判定する為の文字列を正規表記で記載</t>
+    <rPh sb="29" eb="31">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1507,6 +1559,13 @@
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1637,7 +1696,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1775,6 +1834,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2088,12 +2150,12 @@
   </sheetPr>
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="9" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -2109,7 +2171,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2132,7 +2194,7 @@
     <row r="3" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2154,7 +2216,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2166,7 +2228,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2178,7 +2240,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2199,22 +2261,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="G9" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>1</v>
@@ -2225,13 +2287,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10" s="35" t="b">
         <v>1</v>
@@ -2246,19 +2308,19 @@
         <v>2</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H11" s="8"/>
     </row>
@@ -2267,22 +2329,22 @@
         <v>3</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2290,22 +2352,22 @@
         <v>4</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2313,22 +2375,22 @@
         <v>5</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2336,22 +2398,22 @@
         <v>6</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2359,10 +2421,10 @@
         <v>7</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E16" s="42">
         <v>0</v>
@@ -2374,7 +2436,7 @@
         <v>100</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2382,22 +2444,22 @@
         <v>8</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2405,22 +2467,22 @@
         <v>9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2428,13 +2490,13 @@
         <v>10</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" s="43">
         <v>1</v>
@@ -2449,22 +2511,22 @@
         <v>11</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2472,22 +2534,22 @@
         <v>12</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2495,22 +2557,22 @@
         <v>13</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2518,10 +2580,10 @@
         <v>14</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E23" s="42">
         <v>151</v>
@@ -2533,7 +2595,7 @@
         <v>5000</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="10:11" x14ac:dyDescent="0.15">
@@ -2613,12 +2675,12 @@
   </sheetPr>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B6" sqref="B6"/>
-      <selection pane="topRight" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection activeCell="E24" sqref="E24"/>
+      <selection pane="topRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -2634,7 +2696,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2657,7 +2719,7 @@
     <row r="3" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2679,7 +2741,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2691,7 +2753,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2703,7 +2765,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2715,22 +2777,22 @@
     <row r="8" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="G9" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>1</v>
@@ -2741,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E10" s="34">
         <v>4096</v>
@@ -2756,7 +2818,7 @@
         <v>16384</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2764,22 +2826,22 @@
         <v>2</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2787,10 +2849,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E12" s="34">
         <v>30</v>
@@ -2802,7 +2864,7 @@
         <v>600</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2810,10 +2872,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E13" s="34">
         <v>60</v>
@@ -2825,7 +2887,7 @@
         <v>600</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2833,22 +2895,22 @@
         <v>5</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2856,22 +2918,22 @@
         <v>6</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2879,22 +2941,22 @@
         <v>7</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2902,10 +2964,10 @@
         <v>8</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E17" s="34">
         <v>60</v>
@@ -2917,7 +2979,7 @@
         <v>600</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2925,22 +2987,22 @@
         <v>9</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2948,10 +3010,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E19" s="34">
         <v>2000</v>
@@ -2963,7 +3025,7 @@
         <v>8000</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2971,22 +3033,22 @@
         <v>11</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J20" s="2"/>
     </row>
@@ -2995,10 +3057,10 @@
         <v>12</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E21" s="34">
         <v>2000</v>
@@ -3010,7 +3072,7 @@
         <v>8000</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3018,10 +3080,10 @@
         <v>13</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E22" s="34">
         <v>60</v>
@@ -3033,7 +3095,7 @@
         <v>600</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="45" x14ac:dyDescent="0.15">
@@ -3041,22 +3103,22 @@
         <v>14</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3064,10 +3126,10 @@
         <v>15</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E24" s="35">
         <v>1000</v>
@@ -3078,8 +3140,8 @@
       <c r="G24" s="35">
         <v>1</v>
       </c>
-      <c r="H24" s="46" t="s">
-        <v>40</v>
+      <c r="H24" s="47" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3087,10 +3149,10 @@
         <v>16</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E25" s="35">
         <v>1440</v>
@@ -3101,29 +3163,29 @@
       <c r="G25" s="35">
         <v>43200</v>
       </c>
-      <c r="H25" s="47"/>
+      <c r="H25" s="48"/>
     </row>
     <row r="26" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="6">
         <v>17</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3131,22 +3193,22 @@
         <v>18</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J27" s="2"/>
     </row>
@@ -3155,22 +3217,22 @@
         <v>19</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J28" s="2"/>
     </row>
@@ -3179,22 +3241,22 @@
         <v>20</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3202,22 +3264,22 @@
         <v>21</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F30" s="35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3225,22 +3287,22 @@
         <v>22</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F31" s="35" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3248,22 +3310,22 @@
         <v>23</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G32" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.15">
@@ -3271,22 +3333,22 @@
         <v>24</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3312,12 +3374,12 @@
   </sheetPr>
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B6" sqref="B6"/>
-      <selection pane="topRight" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection activeCell="E24" sqref="E24"/>
+      <selection pane="topRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -3334,7 +3396,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3355,7 +3417,7 @@
     <row r="3" spans="1:9" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3374,19 +3436,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E5" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>48</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>49</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>1</v>
@@ -3397,19 +3459,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -3417,19 +3479,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -3437,19 +3499,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="44">
         <v>5</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -3457,19 +3519,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="44">
         <v>15</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -3477,19 +3539,19 @@
         <v>5</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -3497,19 +3559,19 @@
         <v>6</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -3518,19 +3580,19 @@
         <v>7</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -3538,19 +3600,19 @@
         <v>8</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -3558,19 +3620,19 @@
         <v>9</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="44" t="b">
         <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -3578,19 +3640,19 @@
         <v>10</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -3599,19 +3661,19 @@
         <v>11</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="44">
         <v>60</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -3620,19 +3682,19 @@
         <v>12</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="44" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
@@ -3640,19 +3702,19 @@
         <v>13</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" s="44" t="b">
         <v>0</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
@@ -3660,19 +3722,19 @@
         <v>14</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
@@ -3680,19 +3742,19 @@
         <v>15</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
@@ -3700,19 +3762,19 @@
         <v>16</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
@@ -3720,19 +3782,19 @@
         <v>17</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" s="44" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
@@ -3740,19 +3802,19 @@
         <v>18</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="44" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
@@ -3760,19 +3822,19 @@
         <v>19</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
@@ -3780,19 +3842,19 @@
         <v>20</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
@@ -3800,19 +3862,19 @@
         <v>21</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" s="44" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
@@ -3820,19 +3882,19 @@
         <v>22</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" s="44" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
@@ -3840,19 +3902,19 @@
         <v>23</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F28" s="44">
         <v>5099</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
@@ -3860,19 +3922,19 @@
         <v>24</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29" s="44">
         <v>30</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
@@ -3880,19 +3942,19 @@
         <v>25</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" s="44">
         <v>5</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
@@ -3963,7 +4025,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.35433070866141736" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P／&amp;N</oddFooter>
   </headerFooter>
@@ -3975,35 +4037,38 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B6" sqref="B6"/>
-      <selection pane="topRight" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E24" sqref="E24"/>
+      <selection pane="topRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1"/>
     <col min="2" max="2" width="4.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="11.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="73.625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="11.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="84.375" style="3" customWidth="1"/>
     <col min="10" max="10" width="71" style="1" customWidth="1"/>
     <col min="11" max="16384" width="1.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -4024,7 +4089,7 @@
     <row r="3" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -4048,46 +4113,46 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="51" t="s">
+      <c r="C5" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52" t="s">
         <v>38</v>
       </c>
+      <c r="J5" s="52" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.15">
-      <c r="B6" s="52"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>103</v>
-      </c>
       <c r="G6" s="17" t="s">
-        <v>4</v>
+        <v>242</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
+        <v>241</v>
+      </c>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.15">
       <c r="B7" s="18">
@@ -4095,17 +4160,17 @@
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
-      <c r="E7" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25" t="s">
+        <v>32</v>
+      </c>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.15">
@@ -4113,7 +4178,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
@@ -4121,10 +4186,10 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -4132,24 +4197,24 @@
         <v>3</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="25"/>
+        <v>32</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>32</v>
+      </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H9" s="25"/>
       <c r="I9" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -4157,28 +4222,28 @@
         <v>4</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -4186,28 +4251,28 @@
         <v>5</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -4215,7 +4280,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
@@ -4223,10 +4288,10 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="114" customHeight="1" x14ac:dyDescent="0.15">
@@ -4235,19 +4300,19 @@
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="25"/>
+        <v>32</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>32</v>
+      </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="25" t="s">
-        <v>33</v>
-      </c>
+      <c r="H13" s="25"/>
       <c r="I13" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.15">
@@ -4255,7 +4320,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -4263,10 +4328,10 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -4274,24 +4339,28 @@
         <v>9</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+        <v>32</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>32</v>
+      </c>
       <c r="G15" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="63.6" customHeight="1" x14ac:dyDescent="0.15">
@@ -4299,28 +4368,28 @@
         <v>10</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K16" s="2"/>
     </row>
@@ -4329,28 +4398,28 @@
         <v>11</v>
       </c>
       <c r="C17" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="22" t="s">
         <v>33</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
@@ -4358,28 +4427,28 @@
         <v>12</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="47.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -4387,28 +4456,28 @@
         <v>13</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K19" s="2"/>
     </row>
@@ -4417,22 +4486,22 @@
         <v>14</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="25"/>
+        <v>32</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>32</v>
+      </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="25" t="s">
-        <v>33</v>
-      </c>
+      <c r="H20" s="25"/>
       <c r="I20" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="22" t="s">
         <v>88</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>89</v>
       </c>
       <c r="K20" s="2"/>
     </row>
@@ -4442,17 +4511,17 @@
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
       <c r="I21" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K21" s="2"/>
     </row>
@@ -4462,17 +4531,17 @@
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -4481,17 +4550,17 @@
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
@@ -4499,7 +4568,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
@@ -4507,10 +4576,10 @@
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
@@ -4518,7 +4587,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
@@ -4526,10 +4595,10 @@
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="45" x14ac:dyDescent="0.15">
@@ -4537,7 +4606,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
@@ -4545,10 +4614,10 @@
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
       <c r="I26" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="45" x14ac:dyDescent="0.15">
@@ -4556,53 +4625,91 @@
         <v>21</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I27" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J27" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="J27" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C28" s="4"/>
-      <c r="J28" s="24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C29" s="4"/>
-      <c r="J29" s="1" t="s">
-        <v>117</v>
+    </row>
+    <row r="28" spans="2:11" ht="30" x14ac:dyDescent="0.15">
+      <c r="B28" s="18">
+        <v>22</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="45" x14ac:dyDescent="0.15">
+      <c r="B29" s="18">
+        <v>23</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C30" s="4"/>
+      <c r="J30" s="24" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C31" s="4"/>
+      <c r="J31" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C35" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="B6:K6"/>
@@ -4615,7 +4722,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.35433070866141736" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="67" fitToHeight="2" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="65" fitToHeight="2" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P／&amp;N</oddFooter>
   </headerFooter>

--- a/asset/Documents_ja/Exastro-ITA_【参考】インストール時の各コンフィグ設定値.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】インストール時の各コンフィグ設定値.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="１．MariaDB(server.cnf)" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="244">
   <si>
     <t>№</t>
     <phoneticPr fontId="1"/>
@@ -1381,12 +1381,6 @@
     <t>memory</t>
   </si>
   <si>
-    <t>-o ControlMaster=auto -o ControlPersist=60s</t>
-  </si>
-  <si>
-    <t>no -o UserKnownHostsFile=/dev/null</t>
-  </si>
-  <si>
     <t>"/var/lib/php/session"</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1476,6 +1470,10 @@
     <rPh sb="62" eb="64">
       <t>キサイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -o ControlMaster=auto -o ControlPersist=60s -o StrictHostKeyChecking=no -o UserKnownHostsFile=/dev/null</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2150,12 +2148,12 @@
   </sheetPr>
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -2228,7 +2226,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2680,7 +2678,7 @@
       <selection activeCell="E24" sqref="E24"/>
       <selection pane="topRight" activeCell="E24" sqref="E24"/>
       <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -2753,7 +2751,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2996,10 +2994,10 @@
         <v>171</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H18" s="16" t="s">
         <v>8</v>
@@ -3112,10 +3110,10 @@
         <v>173</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>190</v>
@@ -3379,7 +3377,7 @@
       <selection activeCell="E24" sqref="E24"/>
       <selection pane="topRight" activeCell="E24" sqref="E24"/>
       <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -3857,7 +3855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" ht="30" x14ac:dyDescent="0.15">
       <c r="B26" s="18">
         <v>21</v>
       </c>
@@ -3871,7 +3869,7 @@
         <v>46</v>
       </c>
       <c r="F26" s="44" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>8</v>
@@ -3890,8 +3888,8 @@
       <c r="E27" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="44" t="s">
-        <v>234</v>
+      <c r="F27" s="44">
+        <v>5099</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>10</v>
@@ -3911,7 +3909,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="44">
-        <v>5099</v>
+        <v>30</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>10</v>
@@ -3931,7 +3929,7 @@
         <v>12</v>
       </c>
       <c r="F29" s="44">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>10</v>
@@ -3951,16 +3949,14 @@
         <v>11</v>
       </c>
       <c r="F30" s="44">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F31" s="45">
-        <v>30</v>
-      </c>
+      <c r="F31" s="45"/>
     </row>
     <row r="38" spans="9:10" x14ac:dyDescent="0.15">
       <c r="I38" s="2"/>
@@ -4039,12 +4035,12 @@
   </sheetPr>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E24" sqref="E24"/>
       <selection pane="topRight" activeCell="E24" sqref="E24"/>
       <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
-      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -4146,10 +4142,10 @@
         <v>3</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I6" s="53"/>
       <c r="J6" s="53"/>
@@ -4662,10 +4658,10 @@
         <v>32</v>
       </c>
       <c r="I28" s="46" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="45" x14ac:dyDescent="0.15">
@@ -4681,10 +4677,10 @@
         <v>32</v>
       </c>
       <c r="I29" s="46" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">

--- a/asset/Documents_ja/Exastro-ITA_【参考】インストール時の各コンフィグ設定値.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】インストール時の各コンフィグ設定値.xlsx
@@ -9,18 +9,21 @@
   <sheets>
     <sheet name="１．MariaDB(server.cnf)" sheetId="2" r:id="rId1"/>
     <sheet name="２．PHP(php.ini)" sheetId="4" r:id="rId2"/>
-    <sheet name="３．ansible.cfg変更箇所リスト" sheetId="3" r:id="rId3"/>
+    <sheet name="3．ansible.cfg変更箇所リスト" sheetId="3" r:id="rId3"/>
     <sheet name="４．ITA設定ファイル説明" sheetId="9" r:id="rId4"/>
+    <sheet name="5．php-fpm(www.conf)" sheetId="10" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'１．MariaDB(server.cnf)'!$B$9:$H$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'２．PHP(php.ini)'!$B$9:$H$32</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'３．ansible.cfg変更箇所リスト'!$B$5:$G$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3．ansible.cfg変更箇所リスト'!$B$5:$G$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'４．ITA設定ファイル説明'!$B$6:$K$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'5．php-fpm(www.conf)'!$B$10:$H$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'１．MariaDB(server.cnf)'!$A$1:$H$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'２．PHP(php.ini)'!$A$1:$H$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'３．ansible.cfg変更箇所リスト'!$A$1:$G$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'3．ansible.cfg変更箇所リスト'!$A$1:$G$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'４．ITA設定ファイル説明'!$A$1:$J$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'5．php-fpm(www.conf)'!$A$1:$H$12</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'４．ITA設定ファイル説明'!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="254">
   <si>
     <t>№</t>
     <phoneticPr fontId="1"/>
@@ -739,10 +742,6 @@
     <rPh sb="28" eb="30">
       <t>カショ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>３．Ansible（ansible.cfg）設定変更箇所</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1005,10 +1004,6 @@
     <t>1024M</t>
   </si>
   <si>
-    <t>1024MB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>128M</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1073,9 +1068,6 @@
   </si>
   <si>
     <t>READ-COMMITTED</t>
-  </si>
-  <si>
-    <t>512MB</t>
   </si>
   <si>
     <t>64M</t>
@@ -1474,6 +1466,68 @@
   </si>
   <si>
     <t xml:space="preserve"> -o ControlMaster=auto -o ControlPersist=60s -o StrictHostKeyChecking=no -o UserKnownHostsFile=/dev/null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1024MB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2048MB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1024M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2048M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>php_value[session.save_path]</t>
+  </si>
+  <si>
+    <t>/var/lib/php/session</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/ita_sessions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>php_admin_value[memory_limit]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RHEL8系のサーバの場合に配置されます。</t>
+    <rPh sb="5" eb="6">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3．Ansible（ansible.cfg）設定変更箇所</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5．php-fpm(www.conf)設定値の変更箇所リスト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2214,7 +2268,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2226,7 +2280,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2238,7 +2292,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2265,7 +2319,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>47</v>
@@ -2274,7 +2328,7 @@
         <v>48</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>1</v>
@@ -2288,7 +2342,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E10" s="39" t="s">
         <v>60</v>
@@ -2309,16 +2363,16 @@
         <v>5</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E11" s="39" t="s">
         <v>66</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H11" s="8"/>
     </row>
@@ -2330,16 +2384,16 @@
         <v>5</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E12" s="39" t="s">
         <v>65</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>59</v>
@@ -2353,16 +2407,16 @@
         <v>68</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E13" s="42" t="s">
         <v>61</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>139</v>
+        <v>241</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>119</v>
+        <v>242</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>49</v>
@@ -2376,16 +2430,16 @@
         <v>4</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E14" s="42" t="s">
         <v>62</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>49</v>
@@ -2399,16 +2453,16 @@
         <v>4</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>67</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>49</v>
@@ -2422,7 +2476,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E16" s="42">
         <v>0</v>
@@ -2445,16 +2499,16 @@
         <v>4</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E17" s="42" t="s">
         <v>63</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>49</v>
@@ -2468,16 +2522,16 @@
         <v>4</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E18" s="42" t="s">
         <v>64</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>49</v>
@@ -2491,7 +2545,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E19" s="42" t="s">
         <v>60</v>
@@ -2512,16 +2566,16 @@
         <v>4</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E20" s="42" t="s">
         <v>62</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>49</v>
@@ -2535,16 +2589,16 @@
         <v>4</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E21" s="42" t="s">
         <v>62</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>49</v>
@@ -2558,16 +2612,16 @@
         <v>4</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E22" s="42" t="s">
         <v>95</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>49</v>
@@ -2581,7 +2635,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E23" s="42">
         <v>151</v>
@@ -2678,7 +2732,7 @@
       <selection activeCell="E24" sqref="E24"/>
       <selection pane="topRight" activeCell="E24" sqref="E24"/>
       <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -2717,7 +2771,7 @@
     <row r="3" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2739,7 +2793,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2751,7 +2805,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2763,7 +2817,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2781,7 +2835,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>47</v>
@@ -2790,7 +2844,7 @@
         <v>48</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>1</v>
@@ -2804,7 +2858,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E10" s="34">
         <v>4096</v>
@@ -2827,16 +2881,16 @@
         <v>4</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>31</v>
@@ -2850,7 +2904,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E12" s="34">
         <v>30</v>
@@ -2873,7 +2927,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E13" s="34">
         <v>60</v>
@@ -2896,16 +2950,16 @@
         <v>4</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>143</v>
+        <v>243</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>51</v>
@@ -2919,16 +2973,16 @@
         <v>4</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>52</v>
@@ -2942,16 +2996,16 @@
         <v>4</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>53</v>
@@ -2965,7 +3019,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E17" s="34">
         <v>60</v>
@@ -2988,16 +3042,16 @@
         <v>5</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H18" s="16" t="s">
         <v>8</v>
@@ -3011,7 +3065,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E19" s="34">
         <v>2000</v>
@@ -3034,16 +3088,16 @@
         <v>5</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>54</v>
@@ -3058,7 +3112,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E21" s="34">
         <v>2000</v>
@@ -3081,7 +3135,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E22" s="34">
         <v>60</v>
@@ -3104,19 +3158,19 @@
         <v>5</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3127,7 +3181,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E24" s="35">
         <v>1000</v>
@@ -3150,7 +3204,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E25" s="35">
         <v>1440</v>
@@ -3171,16 +3225,16 @@
         <v>5</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H26" s="16" t="s">
         <v>10</v>
@@ -3194,16 +3248,16 @@
         <v>5</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H27" s="16" t="s">
         <v>8</v>
@@ -3218,16 +3272,16 @@
         <v>5</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H28" s="16" t="s">
         <v>8</v>
@@ -3242,16 +3296,16 @@
         <v>5</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>8</v>
@@ -3265,16 +3319,16 @@
         <v>5</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F30" s="35" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H30" s="16" t="s">
         <v>10</v>
@@ -3288,16 +3342,16 @@
         <v>5</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F31" s="35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H31" s="16" t="s">
         <v>10</v>
@@ -3311,16 +3365,16 @@
         <v>5</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G32" s="35" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H32" s="16" t="s">
         <v>10</v>
@@ -3334,19 +3388,19 @@
         <v>5</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3415,7 +3469,7 @@
     <row r="3" spans="1:9" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="14" t="s">
-        <v>98</v>
+        <v>252</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3440,7 +3494,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>47</v>
@@ -3460,13 +3514,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>10</v>
@@ -3480,13 +3534,13 @@
         <v>5</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>10</v>
@@ -3500,7 +3554,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>29</v>
@@ -3520,7 +3574,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>28</v>
@@ -3540,13 +3594,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>10</v>
@@ -3560,13 +3614,13 @@
         <v>5</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>10</v>
@@ -3581,13 +3635,13 @@
         <v>5</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>10</v>
@@ -3601,13 +3655,13 @@
         <v>5</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>10</v>
@@ -3621,7 +3675,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>44</v>
@@ -3641,13 +3695,13 @@
         <v>5</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>10</v>
@@ -3662,7 +3716,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>22</v>
@@ -3683,13 +3737,13 @@
         <v>5</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>45</v>
       </c>
       <c r="F17" s="44" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>10</v>
@@ -3703,7 +3757,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>9</v>
@@ -3723,13 +3777,13 @@
         <v>5</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>10</v>
@@ -3743,13 +3797,13 @@
         <v>5</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>10</v>
@@ -3763,13 +3817,13 @@
         <v>5</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>10</v>
@@ -3783,13 +3837,13 @@
         <v>5</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="44" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>10</v>
@@ -3803,13 +3857,13 @@
         <v>5</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="44" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>10</v>
@@ -3823,13 +3877,13 @@
         <v>5</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>10</v>
@@ -3843,13 +3897,13 @@
         <v>5</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>10</v>
@@ -3863,13 +3917,13 @@
         <v>5</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>46</v>
       </c>
       <c r="F26" s="44" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>8</v>
@@ -3883,7 +3937,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>14</v>
@@ -3903,7 +3957,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>13</v>
@@ -3923,7 +3977,7 @@
         <v>5</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>12</v>
@@ -3943,7 +3997,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>11</v>
@@ -4085,7 +4139,7 @@
     <row r="3" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -4113,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="50"/>
@@ -4130,22 +4184,22 @@
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.15">
       <c r="B6" s="53"/>
       <c r="C6" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I6" s="53"/>
       <c r="J6" s="53"/>
@@ -4308,7 +4362,7 @@
         <v>82</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.15">
@@ -4444,7 +4498,7 @@
         <v>76</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="47.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -4473,7 +4527,7 @@
         <v>77</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K19" s="2"/>
     </row>
@@ -4517,7 +4571,7 @@
         <v>78</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K21" s="2"/>
     </row>
@@ -4537,7 +4591,7 @@
         <v>79</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -4556,7 +4610,7 @@
         <v>89</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
@@ -4575,7 +4629,7 @@
         <v>80</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
@@ -4658,10 +4712,10 @@
         <v>32</v>
       </c>
       <c r="I28" s="46" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="45" x14ac:dyDescent="0.15">
@@ -4677,22 +4731,22 @@
         <v>32</v>
       </c>
       <c r="I29" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="J29" s="22" t="s">
         <v>238</v>
-      </c>
-      <c r="J29" s="22" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C30" s="4"/>
       <c r="J30" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C31" s="4"/>
       <c r="J31" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
@@ -4723,4 +4777,205 @@
     <oddFooter>&amp;C&amp;P／&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="10" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E24" sqref="E24"/>
+      <selection pane="topRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="1"/>
+    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="28.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.75" style="30" customWidth="1"/>
+    <col min="8" max="8" width="61.875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="1.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <autoFilter ref="B10:H12"/>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.35433070866141736" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P／&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/asset/Documents_ja/Exastro-ITA_【参考】インストール時の各コンフィグ設定値.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】インストール時の各コンフィグ設定値.xlsx
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'４．ITA設定ファイル説明'!$B$6:$K$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'5．php-fpm(www.conf)'!$B$10:$H$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'１．MariaDB(server.cnf)'!$A$1:$H$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'２．PHP(php.ini)'!$A$1:$H$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'２．PHP(php.ini)'!$A$1:$H$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'3．ansible.cfg変更箇所リスト'!$A$1:$G$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'４．ITA設定ファイル説明'!$A$1:$J$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'5．php-fpm(www.conf)'!$A$1:$H$12</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="255">
   <si>
     <t>№</t>
     <phoneticPr fontId="1"/>
@@ -1529,6 +1529,9 @@
   <si>
     <t>5．php-fpm(www.conf)設定値の変更箇所リスト</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>session.cookie_httponly</t>
   </si>
 </sst>
 </file>
@@ -2207,7 +2210,7 @@
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -2725,14 +2728,14 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E24" sqref="E24"/>
       <selection pane="topRight" activeCell="E24" sqref="E24"/>
       <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -3403,7 +3406,30 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B34" s="6">
+        <v>25</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" s="36">
+        <v>1</v>
+      </c>
+      <c r="G34" s="36">
+        <v>1</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <autoFilter ref="B9:H32"/>
   <mergeCells count="1">

--- a/asset/Documents_ja/Exastro-ITA_【参考】インストール時の各コンフィグ設定値.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】インストール時の各コンフィグ設定値.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="１．MariaDB(server.cnf)" sheetId="2" r:id="rId1"/>
@@ -283,52 +283,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">データポータビリティの、インポート処理の実行時間制限値。
-設定値を過ぎても実行中の処理は失敗と判定する。
-単位は秒。デフォルトは300を指定。
-</t>
-    <rPh sb="17" eb="19">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>セイゲンチ</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>セッテイチ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="37" eb="40">
-      <t>ジッコウチュウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">PHPモジュールのパスを記載。
 例：/bin/php
 </t>
@@ -1532,6 +1486,52 @@
   </si>
   <si>
     <t>session.cookie_httponly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">データポータビリティの、インポート処理の実行時間制限値。
+設定値を過ぎても実行中の処理は失敗と判定する。
+単位は秒。デフォルトは18000を指定。
+</t>
+    <rPh sb="17" eb="19">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>セイゲンチ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>セッテイチ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>ジッコウチュウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2205,7 +2205,7 @@
   </sheetPr>
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
@@ -2226,7 +2226,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2249,7 +2249,7 @@
     <row r="3" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2271,7 +2271,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2283,7 +2283,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2295,7 +2295,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2322,16 +2322,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="G9" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>1</v>
@@ -2345,10 +2345,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="35" t="b">
         <v>1</v>
@@ -2366,16 +2366,16 @@
         <v>5</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H11" s="8"/>
     </row>
@@ -2387,19 +2387,19 @@
         <v>5</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2407,22 +2407,22 @@
         <v>4</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="G13" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="G13" s="37" t="s">
-        <v>242</v>
-      </c>
       <c r="H13" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2433,19 +2433,19 @@
         <v>4</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2456,19 +2456,19 @@
         <v>4</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2479,7 +2479,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E16" s="42">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>100</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2502,19 +2502,19 @@
         <v>4</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2525,19 +2525,19 @@
         <v>4</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2548,10 +2548,10 @@
         <v>4</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F19" s="43">
         <v>1</v>
@@ -2569,19 +2569,19 @@
         <v>4</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2592,19 +2592,19 @@
         <v>4</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2615,19 +2615,19 @@
         <v>4</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2638,7 +2638,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E23" s="42">
         <v>151</v>
@@ -2650,7 +2650,7 @@
         <v>5000</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="10:11" x14ac:dyDescent="0.15">
@@ -2731,7 +2731,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E24" sqref="E24"/>
       <selection pane="topRight" activeCell="E24" sqref="E24"/>
       <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
@@ -2751,7 +2751,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2774,7 +2774,7 @@
     <row r="3" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2796,7 +2796,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2808,7 +2808,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2820,7 +2820,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2838,16 +2838,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="G9" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>1</v>
@@ -2861,7 +2861,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E10" s="34">
         <v>4096</v>
@@ -2873,7 +2873,7 @@
         <v>16384</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2884,16 +2884,16 @@
         <v>4</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>31</v>
@@ -2907,7 +2907,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E12" s="34">
         <v>30</v>
@@ -2919,7 +2919,7 @@
         <v>600</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2930,7 +2930,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E13" s="34">
         <v>60</v>
@@ -2942,7 +2942,7 @@
         <v>600</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2953,19 +2953,19 @@
         <v>4</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F14" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="G14" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="G14" s="37" t="s">
-        <v>244</v>
-      </c>
       <c r="H14" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2976,19 +2976,19 @@
         <v>4</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2999,19 +2999,19 @@
         <v>4</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3022,7 +3022,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E17" s="34">
         <v>60</v>
@@ -3034,7 +3034,7 @@
         <v>600</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3045,16 +3045,16 @@
         <v>5</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H18" s="16" t="s">
         <v>8</v>
@@ -3068,7 +3068,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E19" s="34">
         <v>2000</v>
@@ -3080,7 +3080,7 @@
         <v>8000</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3091,19 +3091,19 @@
         <v>5</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J20" s="2"/>
     </row>
@@ -3115,7 +3115,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E21" s="34">
         <v>2000</v>
@@ -3127,7 +3127,7 @@
         <v>8000</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3138,7 +3138,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E22" s="34">
         <v>60</v>
@@ -3150,7 +3150,7 @@
         <v>600</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="45" x14ac:dyDescent="0.15">
@@ -3161,19 +3161,19 @@
         <v>5</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3184,7 +3184,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E24" s="35">
         <v>1000</v>
@@ -3207,7 +3207,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E25" s="35">
         <v>1440</v>
@@ -3228,16 +3228,16 @@
         <v>5</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H26" s="16" t="s">
         <v>10</v>
@@ -3251,16 +3251,16 @@
         <v>5</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H27" s="16" t="s">
         <v>8</v>
@@ -3275,16 +3275,16 @@
         <v>5</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H28" s="16" t="s">
         <v>8</v>
@@ -3299,16 +3299,16 @@
         <v>5</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>8</v>
@@ -3322,16 +3322,16 @@
         <v>5</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F30" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H30" s="16" t="s">
         <v>10</v>
@@ -3345,16 +3345,16 @@
         <v>5</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F31" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H31" s="16" t="s">
         <v>10</v>
@@ -3368,16 +3368,16 @@
         <v>5</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G32" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H32" s="16" t="s">
         <v>10</v>
@@ -3391,19 +3391,19 @@
         <v>5</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.15">
@@ -3414,10 +3414,10 @@
         <v>5</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F34" s="36">
         <v>1</v>
@@ -3426,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3474,7 +3474,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3495,7 +3495,7 @@
     <row r="3" spans="1:9" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3520,13 +3520,13 @@
         <v>6</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>47</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>48</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>1</v>
@@ -3540,13 +3540,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>10</v>
@@ -3560,13 +3560,13 @@
         <v>5</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>10</v>
@@ -3580,7 +3580,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>29</v>
@@ -3600,7 +3600,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>28</v>
@@ -3620,13 +3620,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>10</v>
@@ -3640,13 +3640,13 @@
         <v>5</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>10</v>
@@ -3661,13 +3661,13 @@
         <v>5</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>10</v>
@@ -3681,13 +3681,13 @@
         <v>5</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>10</v>
@@ -3701,10 +3701,10 @@
         <v>5</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="44" t="b">
         <v>0</v>
@@ -3721,13 +3721,13 @@
         <v>5</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>10</v>
@@ -3742,7 +3742,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>22</v>
@@ -3763,13 +3763,13 @@
         <v>5</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>10</v>
@@ -3783,7 +3783,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>9</v>
@@ -3803,13 +3803,13 @@
         <v>5</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>10</v>
@@ -3823,13 +3823,13 @@
         <v>5</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>10</v>
@@ -3843,13 +3843,13 @@
         <v>5</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>10</v>
@@ -3863,13 +3863,13 @@
         <v>5</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>10</v>
@@ -3883,13 +3883,13 @@
         <v>5</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>10</v>
@@ -3903,13 +3903,13 @@
         <v>5</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>10</v>
@@ -3923,13 +3923,13 @@
         <v>5</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>10</v>
@@ -3943,13 +3943,13 @@
         <v>5</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F26" s="44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>8</v>
@@ -3963,7 +3963,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>14</v>
@@ -3983,7 +3983,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>13</v>
@@ -4003,7 +4003,7 @@
         <v>5</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>12</v>
@@ -4023,7 +4023,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>11</v>
@@ -4115,12 +4115,12 @@
   </sheetPr>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E24" sqref="E24"/>
       <selection pane="topRight" activeCell="E24" sqref="E24"/>
       <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -4138,7 +4138,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -4165,7 +4165,7 @@
     <row r="3" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="50"/>
@@ -4210,22 +4210,22 @@
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.15">
       <c r="B6" s="53"/>
       <c r="C6" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I6" s="53"/>
       <c r="J6" s="53"/>
@@ -4243,7 +4243,7 @@
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J7" s="23" t="s">
         <v>35</v>
@@ -4262,10 +4262,10 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>40</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J9" s="23" t="s">
         <v>36</v>
@@ -4316,10 +4316,10 @@
         <v>32</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -4345,10 +4345,10 @@
         <v>32</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -4364,10 +4364,10 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="114" customHeight="1" x14ac:dyDescent="0.15">
@@ -4385,10 +4385,10 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.15">
@@ -4404,10 +4404,10 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -4433,10 +4433,10 @@
         <v>32</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="63.6" customHeight="1" x14ac:dyDescent="0.15">
@@ -4462,10 +4462,10 @@
         <v>32</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K16" s="2"/>
     </row>
@@ -4492,7 +4492,7 @@
         <v>32</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J17" s="22" t="s">
         <v>33</v>
@@ -4521,10 +4521,10 @@
         <v>32</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="47.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -4550,10 +4550,10 @@
         <v>32</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K19" s="2"/>
     </row>
@@ -4574,10 +4574,10 @@
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="22" t="s">
         <v>87</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>88</v>
       </c>
       <c r="K20" s="2"/>
     </row>
@@ -4594,10 +4594,10 @@
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
       <c r="I21" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K21" s="2"/>
     </row>
@@ -4614,10 +4614,10 @@
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -4633,10 +4633,10 @@
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
@@ -4652,10 +4652,10 @@
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
@@ -4663,7 +4663,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
@@ -4671,10 +4671,10 @@
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="45" x14ac:dyDescent="0.15">
@@ -4690,10 +4690,10 @@
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
       <c r="I26" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="45" x14ac:dyDescent="0.15">
@@ -4719,10 +4719,10 @@
         <v>32</v>
       </c>
       <c r="I27" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27" s="22" t="s">
         <v>92</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="30" x14ac:dyDescent="0.15">
@@ -4738,10 +4738,10 @@
         <v>32</v>
       </c>
       <c r="I28" s="46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="45" x14ac:dyDescent="0.15">
@@ -4757,22 +4757,22 @@
         <v>32</v>
       </c>
       <c r="I29" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C30" s="4"/>
       <c r="J30" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C31" s="4"/>
       <c r="J31" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
@@ -4833,7 +4833,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -4856,7 +4856,7 @@
     <row r="3" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -4878,7 +4878,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -4890,7 +4890,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -4902,7 +4902,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -4914,7 +4914,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -4932,16 +4932,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="G10" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>1</v>
@@ -4955,19 +4955,19 @@
         <v>4</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -4978,19 +4978,19 @@
         <v>5</v>
       </c>
       <c r="D12" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="E12" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="F12" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="G12" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="H12" s="16" t="s">
         <v>248</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/asset/Documents_ja/Exastro-ITA_【参考】インストール時の各コンフィグ設定値.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】インストール時の各コンフィグ設定値.xlsx
@@ -591,10 +591,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(ITAインストールディレクトリ)/ita-root/confs/commonconfs/admin_mail_addr.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(ITAインストールディレクトリ)/ita-root/confs/webconfs/path_HTML_AJAX.txt</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1531,6 +1527,10 @@
     <rPh sb="70" eb="72">
       <t>シテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITAインストールディレクトリ)/ita-root/confs/webconfs/admin_mail_addr.txt</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2226,7 +2226,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2249,7 +2249,7 @@
     <row r="3" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2271,7 +2271,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2283,7 +2283,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2295,7 +2295,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2322,7 +2322,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>46</v>
@@ -2331,7 +2331,7 @@
         <v>47</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>1</v>
@@ -2345,7 +2345,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E10" s="39" t="s">
         <v>59</v>
@@ -2366,16 +2366,16 @@
         <v>5</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="39" t="s">
         <v>65</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H11" s="8"/>
     </row>
@@ -2387,16 +2387,16 @@
         <v>5</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12" s="39" t="s">
         <v>64</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>58</v>
@@ -2410,16 +2410,16 @@
         <v>67</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E13" s="42" t="s">
         <v>60</v>
       </c>
       <c r="F13" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="G13" s="37" t="s">
         <v>240</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>241</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>48</v>
@@ -2433,16 +2433,16 @@
         <v>4</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E14" s="42" t="s">
         <v>61</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>48</v>
@@ -2456,16 +2456,16 @@
         <v>4</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>66</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>48</v>
@@ -2479,7 +2479,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E16" s="42">
         <v>0</v>
@@ -2502,16 +2502,16 @@
         <v>4</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E17" s="42" t="s">
         <v>62</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>48</v>
@@ -2525,16 +2525,16 @@
         <v>4</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" s="42" t="s">
         <v>63</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>48</v>
@@ -2548,7 +2548,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E19" s="42" t="s">
         <v>59</v>
@@ -2569,16 +2569,16 @@
         <v>4</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E20" s="42" t="s">
         <v>61</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>48</v>
@@ -2592,16 +2592,16 @@
         <v>4</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E21" s="42" t="s">
         <v>61</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>48</v>
@@ -2615,16 +2615,16 @@
         <v>4</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>48</v>
@@ -2638,7 +2638,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E23" s="42">
         <v>151</v>
@@ -2751,7 +2751,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2774,7 +2774,7 @@
     <row r="3" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2796,7 +2796,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2808,7 +2808,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2820,7 +2820,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2838,7 +2838,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>46</v>
@@ -2847,7 +2847,7 @@
         <v>47</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>1</v>
@@ -2861,7 +2861,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E10" s="34">
         <v>4096</v>
@@ -2884,16 +2884,16 @@
         <v>4</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>31</v>
@@ -2907,7 +2907,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E12" s="34">
         <v>30</v>
@@ -2930,7 +2930,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E13" s="34">
         <v>60</v>
@@ -2953,16 +2953,16 @@
         <v>4</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F14" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="G14" s="37" t="s">
         <v>242</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>243</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>50</v>
@@ -2976,16 +2976,16 @@
         <v>4</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>51</v>
@@ -2999,16 +2999,16 @@
         <v>4</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>52</v>
@@ -3022,7 +3022,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E17" s="34">
         <v>60</v>
@@ -3045,16 +3045,16 @@
         <v>5</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H18" s="16" t="s">
         <v>8</v>
@@ -3068,7 +3068,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E19" s="34">
         <v>2000</v>
@@ -3091,16 +3091,16 @@
         <v>5</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>53</v>
@@ -3115,7 +3115,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E21" s="34">
         <v>2000</v>
@@ -3138,7 +3138,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E22" s="34">
         <v>60</v>
@@ -3161,19 +3161,19 @@
         <v>5</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3184,7 +3184,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E24" s="35">
         <v>1000</v>
@@ -3207,7 +3207,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E25" s="35">
         <v>1440</v>
@@ -3228,16 +3228,16 @@
         <v>5</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H26" s="16" t="s">
         <v>10</v>
@@ -3251,16 +3251,16 @@
         <v>5</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H27" s="16" t="s">
         <v>8</v>
@@ -3275,16 +3275,16 @@
         <v>5</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H28" s="16" t="s">
         <v>8</v>
@@ -3299,16 +3299,16 @@
         <v>5</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>8</v>
@@ -3322,16 +3322,16 @@
         <v>5</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F30" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H30" s="16" t="s">
         <v>10</v>
@@ -3345,16 +3345,16 @@
         <v>5</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F31" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H31" s="16" t="s">
         <v>10</v>
@@ -3368,16 +3368,16 @@
         <v>5</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G32" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H32" s="16" t="s">
         <v>10</v>
@@ -3391,19 +3391,19 @@
         <v>5</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.15">
@@ -3414,10 +3414,10 @@
         <v>5</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F34" s="36">
         <v>1</v>
@@ -3426,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3474,7 +3474,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3495,7 +3495,7 @@
     <row r="3" spans="1:9" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3520,7 +3520,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>46</v>
@@ -3540,13 +3540,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>10</v>
@@ -3560,13 +3560,13 @@
         <v>5</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>10</v>
@@ -3580,7 +3580,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>29</v>
@@ -3600,7 +3600,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>28</v>
@@ -3620,13 +3620,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>10</v>
@@ -3640,13 +3640,13 @@
         <v>5</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>10</v>
@@ -3661,13 +3661,13 @@
         <v>5</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>10</v>
@@ -3681,13 +3681,13 @@
         <v>5</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>10</v>
@@ -3701,7 +3701,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>43</v>
@@ -3721,13 +3721,13 @@
         <v>5</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>10</v>
@@ -3742,7 +3742,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>22</v>
@@ -3763,13 +3763,13 @@
         <v>5</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F17" s="44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>10</v>
@@ -3783,7 +3783,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>9</v>
@@ -3803,13 +3803,13 @@
         <v>5</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>10</v>
@@ -3823,13 +3823,13 @@
         <v>5</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>10</v>
@@ -3843,13 +3843,13 @@
         <v>5</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>10</v>
@@ -3863,13 +3863,13 @@
         <v>5</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>10</v>
@@ -3883,13 +3883,13 @@
         <v>5</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>10</v>
@@ -3903,13 +3903,13 @@
         <v>5</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>10</v>
@@ -3923,13 +3923,13 @@
         <v>5</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>10</v>
@@ -3943,13 +3943,13 @@
         <v>5</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>45</v>
       </c>
       <c r="F26" s="44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>8</v>
@@ -3963,7 +3963,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>14</v>
@@ -3983,7 +3983,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>13</v>
@@ -4003,7 +4003,7 @@
         <v>5</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>12</v>
@@ -4023,7 +4023,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>11</v>
@@ -4116,11 +4116,11 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E24" sqref="E24"/>
       <selection pane="topRight" activeCell="E24" sqref="E24"/>
       <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -4138,7 +4138,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -4165,7 +4165,7 @@
     <row r="3" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="50"/>
@@ -4210,22 +4210,22 @@
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.15">
       <c r="B6" s="53"/>
       <c r="C6" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I6" s="53"/>
       <c r="J6" s="53"/>
@@ -4265,7 +4265,7 @@
         <v>69</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -4316,10 +4316,10 @@
         <v>32</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -4385,10 +4385,10 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.15">
@@ -4462,7 +4462,7 @@
         <v>32</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J16" s="23" t="s">
         <v>57</v>
@@ -4492,7 +4492,7 @@
         <v>32</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J17" s="22" t="s">
         <v>33</v>
@@ -4524,7 +4524,7 @@
         <v>75</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="47.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -4553,7 +4553,7 @@
         <v>76</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K19" s="2"/>
     </row>
@@ -4574,10 +4574,10 @@
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="22" t="s">
         <v>86</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>87</v>
       </c>
       <c r="K20" s="2"/>
     </row>
@@ -4597,7 +4597,7 @@
         <v>77</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K21" s="2"/>
     </row>
@@ -4617,7 +4617,7 @@
         <v>78</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -4633,10 +4633,10 @@
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
@@ -4652,10 +4652,10 @@
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="8" t="s">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
@@ -4663,7 +4663,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
@@ -4671,10 +4671,10 @@
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="45" x14ac:dyDescent="0.15">
@@ -4690,7 +4690,7 @@
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
       <c r="I26" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J26" s="23" t="s">
         <v>41</v>
@@ -4719,10 +4719,10 @@
         <v>32</v>
       </c>
       <c r="I27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J27" s="22" t="s">
         <v>91</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="30" x14ac:dyDescent="0.15">
@@ -4738,10 +4738,10 @@
         <v>32</v>
       </c>
       <c r="I28" s="46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="45" x14ac:dyDescent="0.15">
@@ -4757,22 +4757,22 @@
         <v>32</v>
       </c>
       <c r="I29" s="46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C30" s="4"/>
       <c r="J30" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C31" s="4"/>
       <c r="J31" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
@@ -4833,7 +4833,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -4856,7 +4856,7 @@
     <row r="3" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -4878,7 +4878,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -4890,7 +4890,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -4902,7 +4902,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -4914,7 +4914,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -4932,7 +4932,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>46</v>
@@ -4941,7 +4941,7 @@
         <v>47</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>1</v>
@@ -4955,16 +4955,16 @@
         <v>4</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>48</v>
@@ -4978,19 +4978,19 @@
         <v>5</v>
       </c>
       <c r="D12" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="E12" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="F12" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="G12" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="H12" s="16" t="s">
         <v>247</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
